--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_13_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_13_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1973225.440749993</v>
+        <v>1971774.062033803</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1728985.122927043</v>
+        <v>1728985.122927041</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7006014.85603196</v>
+        <v>7006014.856031959</v>
       </c>
     </row>
     <row r="11">
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8.981353179542184</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F3" t="n">
-        <v>8.981353179542184</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>8.981353179542182</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="S4" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="T4" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>8.981353179542182</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.97556198614117</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.97556198614117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>8.981353179542184</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>8.981353179542182</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>8.981353179542182</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>8.981353179542184</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>10.19681332827224</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>10.19681332827224</v>
@@ -1150,7 +1150,7 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1.975561986141166</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.97556198614117</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.981353179542182</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1232,52 +1232,52 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>8.981353179542184</v>
+      </c>
+      <c r="V9" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="W9" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="X9" t="n">
         <v>10.19681332827224</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="D10" t="n">
-        <v>8.981353179542182</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1311,55 +1311,55 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>8.981353179542184</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>10.19681332827224</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>10.19681332827224</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>10.19681332827224</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>361.3346987355314</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>361.2390756475494</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>355.6350214755569</v>
       </c>
       <c r="E11" t="n">
         <v>365.4125441959591</v>
@@ -1384,13 +1384,13 @@
         <v>372.0358387935361</v>
       </c>
       <c r="G11" t="n">
-        <v>202.2146103153532</v>
+        <v>122.0338519006876</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.891498459842282</v>
+        <v>2.891498459842296</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>301.5549099845709</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>335.1384287238699</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>141.0384401977908</v>
       </c>
       <c r="C13" t="n">
-        <v>124.5981695815868</v>
+        <v>124.5981695815875</v>
       </c>
       <c r="D13" t="n">
         <v>113.1154290980059</v>
       </c>
       <c r="E13" t="n">
-        <v>114.5174378480505</v>
+        <v>114.5174378480506</v>
       </c>
       <c r="F13" t="n">
         <v>118.2005454982015</v>
@@ -1545,7 +1545,7 @@
         <v>120.353662758737</v>
       </c>
       <c r="H13" t="n">
-        <v>99.41550917698187</v>
+        <v>99.4155091769819</v>
       </c>
       <c r="I13" t="n">
         <v>57.16766137744497</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.85373311280809</v>
+        <v>19.85373311280811</v>
       </c>
       <c r="S13" t="n">
         <v>132.0763607820955</v>
@@ -1584,7 +1584,7 @@
         <v>190.4891736084692</v>
       </c>
       <c r="U13" t="n">
-        <v>235.1618992866969</v>
+        <v>235.1618992866963</v>
       </c>
       <c r="V13" t="n">
         <v>226.3626184775601</v>
@@ -1609,25 +1609,25 @@
         <v>361.3346987355314</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>361.2390756475494</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>355.6350214755569</v>
       </c>
       <c r="E14" t="n">
         <v>365.4125441959591</v>
       </c>
       <c r="F14" t="n">
-        <v>372.0358387935361</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>358.8759273230977</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>252.970475998816</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.891498459842296</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.79390569803743</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>209.627153305917</v>
       </c>
       <c r="V14" t="n">
-        <v>160.5579824724969</v>
+        <v>301.5549099845709</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>351.8526947204238</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>337.9221630526559</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.0384401977908</v>
+        <v>141.0384401977907</v>
       </c>
       <c r="C16" t="n">
         <v>124.5981695815875</v>
@@ -1773,19 +1773,19 @@
         <v>113.1154290980059</v>
       </c>
       <c r="E16" t="n">
-        <v>114.5174378480506</v>
+        <v>114.5174378480505</v>
       </c>
       <c r="F16" t="n">
         <v>118.2005454982015</v>
       </c>
       <c r="G16" t="n">
-        <v>120.353662758737</v>
+        <v>120.3536627587369</v>
       </c>
       <c r="H16" t="n">
-        <v>99.4155091769819</v>
+        <v>99.41550917698184</v>
       </c>
       <c r="I16" t="n">
-        <v>57.16766137744412</v>
+        <v>57.16766137744494</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.85373311280811</v>
+        <v>19.85373311280807</v>
       </c>
       <c r="S16" t="n">
         <v>132.0763607820955</v>
@@ -1864,7 +1864,7 @@
         <v>252.970475998816</v>
       </c>
       <c r="I17" t="n">
-        <v>2.891498459843846</v>
+        <v>2.89149845984296</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>66.79390569803743</v>
+        <v>66.79390569803741</v>
       </c>
       <c r="T17" t="n">
-        <v>170.9066770215221</v>
+        <v>170.906677021522</v>
       </c>
       <c r="U17" t="n">
         <v>209.627153305917</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>141.0384401977908</v>
+        <v>141.0384401977907</v>
       </c>
       <c r="C19" t="n">
         <v>124.5981695815875</v>
@@ -2010,19 +2010,19 @@
         <v>113.1154290980059</v>
       </c>
       <c r="E19" t="n">
-        <v>114.5174378480506</v>
+        <v>114.5174378480505</v>
       </c>
       <c r="F19" t="n">
         <v>118.2005454982015</v>
       </c>
       <c r="G19" t="n">
-        <v>120.353662758737</v>
+        <v>120.3536627587369</v>
       </c>
       <c r="H19" t="n">
-        <v>99.4155091769819</v>
+        <v>99.41550917698186</v>
       </c>
       <c r="I19" t="n">
-        <v>57.16766137744497</v>
+        <v>57.16766137744494</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.85373311280811</v>
+        <v>19.85373311280807</v>
       </c>
       <c r="S19" t="n">
         <v>132.0763607820955</v>
       </c>
       <c r="T19" t="n">
-        <v>190.4891736084692</v>
+        <v>190.4891736084691</v>
       </c>
       <c r="U19" t="n">
         <v>235.1618992866969</v>
@@ -2083,7 +2083,7 @@
         <v>361.3346987355314</v>
       </c>
       <c r="C20" t="n">
-        <v>361.239075647551</v>
+        <v>361.2390756475494</v>
       </c>
       <c r="D20" t="n">
         <v>355.6350214755569</v>
@@ -2101,7 +2101,7 @@
         <v>252.970475998816</v>
       </c>
       <c r="I20" t="n">
-        <v>2.891498459842296</v>
+        <v>2.891498459842261</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>66.79390569803743</v>
+        <v>66.79390569803799</v>
       </c>
       <c r="T20" t="n">
-        <v>170.9066770215221</v>
+        <v>170.906677021522</v>
       </c>
       <c r="U20" t="n">
         <v>209.627153305917</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>141.0384401977908</v>
+        <v>141.0384401977907</v>
       </c>
       <c r="C22" t="n">
         <v>124.5981695815875</v>
@@ -2247,19 +2247,19 @@
         <v>113.1154290980059</v>
       </c>
       <c r="E22" t="n">
-        <v>114.5174378480506</v>
+        <v>114.5174378480505</v>
       </c>
       <c r="F22" t="n">
         <v>118.2005454982015</v>
       </c>
       <c r="G22" t="n">
-        <v>120.353662758737</v>
+        <v>120.3536627587369</v>
       </c>
       <c r="H22" t="n">
-        <v>99.4155091769819</v>
+        <v>99.41550917698186</v>
       </c>
       <c r="I22" t="n">
-        <v>57.16766137744523</v>
+        <v>57.16766137744494</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.85373311280757</v>
+        <v>19.85373311280807</v>
       </c>
       <c r="S22" t="n">
         <v>132.0763607820955</v>
       </c>
       <c r="T22" t="n">
-        <v>190.4891736084692</v>
+        <v>190.4891736084691</v>
       </c>
       <c r="U22" t="n">
         <v>235.1618992866969</v>
@@ -2338,7 +2338,7 @@
         <v>252.970475998816</v>
       </c>
       <c r="I23" t="n">
-        <v>2.891498459842282</v>
+        <v>2.891498459842261</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>66.79390569803741</v>
+        <v>66.79390569803739</v>
       </c>
       <c r="T23" t="n">
         <v>170.906677021522</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>141.0384401977908</v>
+        <v>141.0384401977907</v>
       </c>
       <c r="C25" t="n">
         <v>124.5981695815875</v>
@@ -2490,13 +2490,13 @@
         <v>118.2005454982015</v>
       </c>
       <c r="G25" t="n">
-        <v>120.353662758737</v>
+        <v>120.3536627587369</v>
       </c>
       <c r="H25" t="n">
-        <v>99.41550917698187</v>
+        <v>99.41550917698186</v>
       </c>
       <c r="I25" t="n">
-        <v>57.16766137744497</v>
+        <v>57.16766137744494</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.85373311280809</v>
+        <v>19.85373311280803</v>
       </c>
       <c r="S25" t="n">
         <v>132.0763607820955</v>
       </c>
       <c r="T25" t="n">
-        <v>190.4891736084692</v>
+        <v>190.4891736084691</v>
       </c>
       <c r="U25" t="n">
         <v>235.1618992866969</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>178.7492785259459</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>70.45010738012039</v>
+        <v>165.1379318910501</v>
       </c>
       <c r="H28" t="n">
         <v>144.199778309295</v>
       </c>
       <c r="I28" t="n">
-        <v>101.9519305097581</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2952,16 +2952,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>57.80349798067085</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>176.8606299144087</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>235.2734427407823</v>
       </c>
       <c r="U31" t="n">
-        <v>199.7334184315796</v>
+        <v>279.9461684190101</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>99.42642900147976</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.199778309295</v>
       </c>
       <c r="I34" t="n">
-        <v>101.9519305097581</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>176.8606299144087</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>235.2734427407823</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9461684190101</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>260.7663025523362</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3286,7 +3286,7 @@
         <v>252.970475998816</v>
       </c>
       <c r="I35" t="n">
-        <v>2.89149845984296</v>
+        <v>2.891498459843846</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>64.97150137199201</v>
       </c>
       <c r="I36" t="n">
-        <v>2.473130996481991</v>
+        <v>2.473130996482002</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>97.16261018450957</v>
+        <v>97.16261018450959</v>
       </c>
       <c r="T36" t="n">
         <v>155.6332262528934</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>141.0384401977908</v>
+        <v>141.0384401977907</v>
       </c>
       <c r="C37" t="n">
         <v>124.5981695815875</v>
@@ -3438,10 +3438,10 @@
         <v>118.2005454982015</v>
       </c>
       <c r="G37" t="n">
-        <v>120.353662758737</v>
+        <v>120.3536627587369</v>
       </c>
       <c r="H37" t="n">
-        <v>99.41550917698187</v>
+        <v>99.41550917698186</v>
       </c>
       <c r="I37" t="n">
         <v>57.16766137744496</v>
@@ -3477,10 +3477,10 @@
         <v>132.0763607820955</v>
       </c>
       <c r="T37" t="n">
-        <v>190.4891736084692</v>
+        <v>190.4891736084691</v>
       </c>
       <c r="U37" t="n">
-        <v>235.1618992866968</v>
+        <v>235.161899286697</v>
       </c>
       <c r="V37" t="n">
         <v>226.3626184775601</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>361.3346987355319</v>
+        <v>361.3346987355314</v>
       </c>
       <c r="C38" t="n">
         <v>361.2390756475494</v>
@@ -3523,7 +3523,7 @@
         <v>252.970475998816</v>
       </c>
       <c r="I38" t="n">
-        <v>2.891498459842275</v>
+        <v>2.891498459842261</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.79390569803741</v>
+        <v>66.79390569803799</v>
       </c>
       <c r="T38" t="n">
         <v>170.906677021522</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>141.0384401977908</v>
+        <v>141.0384401977907</v>
       </c>
       <c r="C40" t="n">
         <v>124.5981695815875</v>
@@ -3675,13 +3675,13 @@
         <v>118.2005454982015</v>
       </c>
       <c r="G40" t="n">
-        <v>120.353662758737</v>
+        <v>120.3536627587369</v>
       </c>
       <c r="H40" t="n">
-        <v>99.41550917698157</v>
+        <v>99.41550917698186</v>
       </c>
       <c r="I40" t="n">
-        <v>57.16766137744496</v>
+        <v>57.16766137744494</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.85373311280809</v>
+        <v>19.85373311280807</v>
       </c>
       <c r="S40" t="n">
         <v>132.0763607820955</v>
       </c>
       <c r="T40" t="n">
-        <v>190.4891736084692</v>
+        <v>190.4891736084691</v>
       </c>
       <c r="U40" t="n">
         <v>235.1618992866969</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>361.3346987355314</v>
+        <v>361.3346987355313</v>
       </c>
       <c r="C41" t="n">
-        <v>361.2390756475494</v>
+        <v>226.4610598752446</v>
       </c>
       <c r="D41" t="n">
-        <v>355.6350214755569</v>
+        <v>355.6350214755568</v>
       </c>
       <c r="E41" t="n">
-        <v>365.4125441959591</v>
+        <v>365.412544195959</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>372.0358387935361</v>
       </c>
       <c r="G41" t="n">
-        <v>358.8759273230977</v>
+        <v>358.8759273230976</v>
       </c>
       <c r="H41" t="n">
-        <v>138.3756042996221</v>
+        <v>252.9704759988159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>351.8526947204238</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>141.0384401977908</v>
+        <v>141.0384401977907</v>
       </c>
       <c r="C43" t="n">
-        <v>124.5981695815875</v>
+        <v>124.5981695815874</v>
       </c>
       <c r="D43" t="n">
-        <v>113.1154290980059</v>
+        <v>113.1154290980058</v>
       </c>
       <c r="E43" t="n">
         <v>114.5174378480505</v>
       </c>
       <c r="F43" t="n">
-        <v>118.2005454982015</v>
+        <v>118.2005454982014</v>
       </c>
       <c r="G43" t="n">
-        <v>120.353662758737</v>
+        <v>120.3536627587369</v>
       </c>
       <c r="H43" t="n">
-        <v>99.41550917698187</v>
+        <v>99.41550917698181</v>
       </c>
       <c r="I43" t="n">
-        <v>57.16766137744496</v>
+        <v>57.1676613774449</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.85373311280809</v>
+        <v>19.85373311280938</v>
       </c>
       <c r="S43" t="n">
         <v>132.0763607820955</v>
       </c>
       <c r="T43" t="n">
-        <v>190.4891736084692</v>
+        <v>190.4891736084691</v>
       </c>
       <c r="U43" t="n">
-        <v>235.1618992866969</v>
+        <v>235.1618992866968</v>
       </c>
       <c r="V43" t="n">
-        <v>226.3626184775601</v>
+        <v>226.36261847756</v>
       </c>
       <c r="W43" t="n">
-        <v>231.4946987139012</v>
+        <v>231.4946987139011</v>
       </c>
       <c r="X43" t="n">
-        <v>191.1761543866003</v>
+        <v>191.1761543866002</v>
       </c>
       <c r="Y43" t="n">
-        <v>177.7040724928098</v>
+        <v>177.7040724928097</v>
       </c>
     </row>
     <row r="44">
@@ -3982,22 +3982,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>355.6350214755569</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>365.4125441959591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>372.0358387935361</v>
       </c>
       <c r="G44" t="n">
-        <v>358.8759273230977</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>252.970475998816</v>
       </c>
       <c r="I44" t="n">
-        <v>2.891498459842275</v>
+        <v>2.891498459842254</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.79390569803741</v>
+        <v>66.79390569803738</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>170.906677021522</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>209.627153305917</v>
       </c>
       <c r="V44" t="n">
-        <v>57.8934369957557</v>
+        <v>301.5549099845709</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>351.8526947204238</v>
+        <v>202.4673712108903</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>352.1430371890776</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>141.0384401977902</v>
+        <v>141.0384401977907</v>
       </c>
       <c r="C46" t="n">
         <v>124.5981695815875</v>
@@ -4143,19 +4143,19 @@
         <v>113.1154290980059</v>
       </c>
       <c r="E46" t="n">
-        <v>114.5174378480505</v>
+        <v>114.5174378480508</v>
       </c>
       <c r="F46" t="n">
-        <v>118.2005454982015</v>
+        <v>118.2005454982014</v>
       </c>
       <c r="G46" t="n">
-        <v>120.353662758737</v>
+        <v>120.3536627587369</v>
       </c>
       <c r="H46" t="n">
-        <v>99.41550917698187</v>
+        <v>99.41550917698184</v>
       </c>
       <c r="I46" t="n">
-        <v>57.16766137744496</v>
+        <v>57.16766137744494</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.85373311280809</v>
+        <v>19.85373311280807</v>
       </c>
       <c r="S46" t="n">
         <v>132.0763607820955</v>
       </c>
       <c r="T46" t="n">
-        <v>190.4891736084692</v>
+        <v>190.4891736084691</v>
       </c>
       <c r="U46" t="n">
         <v>235.1618992866969</v>
@@ -4200,10 +4200,10 @@
         <v>231.4946987139012</v>
       </c>
       <c r="X46" t="n">
-        <v>191.1761543866003</v>
+        <v>191.1761543866002</v>
       </c>
       <c r="Y46" t="n">
-        <v>177.7040724928098</v>
+        <v>177.7040724928097</v>
       </c>
     </row>
   </sheetData>
@@ -4333,25 +4333,25 @@
         <v>10.9105902612513</v>
       </c>
       <c r="K2" t="n">
-        <v>21.00543545624082</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="L2" t="n">
-        <v>21.00543545624082</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="M2" t="n">
-        <v>21.00543545624082</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="N2" t="n">
+        <v>10.9105902612513</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10.9105902612513</v>
+      </c>
+      <c r="P2" t="n">
+        <v>20.59756292310993</v>
+      </c>
+      <c r="Q2" t="n">
         <v>30.69240811809945</v>
-      </c>
-      <c r="O2" t="n">
-        <v>30.69240811809945</v>
-      </c>
-      <c r="P2" t="n">
-        <v>30.69240811809945</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>40.78725331308897</v>
       </c>
       <c r="R2" t="n">
         <v>40.78725331308897</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="C3" t="n">
-        <v>30.48744187038973</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="D3" t="n">
-        <v>30.48744187038973</v>
+        <v>21.41536795166025</v>
       </c>
       <c r="E3" t="n">
-        <v>30.48744187038973</v>
+        <v>11.11555650896102</v>
       </c>
       <c r="F3" t="n">
-        <v>21.41536795166025</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="G3" t="n">
-        <v>21.41536795166025</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="H3" t="n">
-        <v>11.11555650896102</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="I3" t="n">
         <v>0.8157450662617793</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8157450662617793</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8157450662617793</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8157450662617793</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="M3" t="n">
-        <v>10.50271772812041</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="N3" t="n">
-        <v>10.50271772812041</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="O3" t="n">
-        <v>20.59756292310993</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="P3" t="n">
-        <v>20.59756292310993</v>
+        <v>31.10028065123034</v>
       </c>
       <c r="Q3" t="n">
-        <v>30.69240811809945</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="R3" t="n">
         <v>40.78725331308897</v>
       </c>
       <c r="S3" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="T3" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="U3" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="V3" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="W3" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="X3" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8157450662617793</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8157450662617793</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8157450662617793</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8157450662617793</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8157450662617793</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8157450662617793</v>
+        <v>11.11555650896102</v>
       </c>
       <c r="H4" t="n">
         <v>0.8157450662617793</v>
@@ -4488,52 +4488,52 @@
         <v>0.8157450662617793</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8157450662617793</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8157450662617793</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8157450662617793</v>
+        <v>31.10028065123034</v>
       </c>
       <c r="M4" t="n">
-        <v>10.9105902612513</v>
+        <v>31.10028065123034</v>
       </c>
       <c r="N4" t="n">
-        <v>20.59756292310993</v>
+        <v>31.10028065123034</v>
       </c>
       <c r="O4" t="n">
-        <v>30.69240811809945</v>
+        <v>31.10028065123034</v>
       </c>
       <c r="P4" t="n">
-        <v>30.69240811809945</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="Q4" t="n">
         <v>40.78725331308897</v>
       </c>
       <c r="R4" t="n">
-        <v>40.78725331308897</v>
+        <v>30.48744187038973</v>
       </c>
       <c r="S4" t="n">
-        <v>30.48744187038973</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="T4" t="n">
         <v>20.18763042769049</v>
       </c>
       <c r="U4" t="n">
-        <v>9.887818984991258</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8157450662617793</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8157450662617793</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="X4" t="n">
-        <v>0.8157450662617793</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8157450662617793</v>
+        <v>20.18763042769049</v>
       </c>
     </row>
     <row r="5">
@@ -4567,25 +4567,25 @@
         <v>0.8157450662617793</v>
       </c>
       <c r="J5" t="n">
-        <v>10.50271772812041</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="K5" t="n">
-        <v>10.50271772812041</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="L5" t="n">
-        <v>10.50271772812041</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="M5" t="n">
-        <v>10.50271772812041</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="N5" t="n">
-        <v>20.59756292310993</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="O5" t="n">
-        <v>20.59756292310993</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="P5" t="n">
-        <v>30.69240811809945</v>
+        <v>31.10028065123034</v>
       </c>
       <c r="Q5" t="n">
         <v>40.78725331308897</v>
@@ -4594,22 +4594,22 @@
         <v>40.78725331308897</v>
       </c>
       <c r="S5" t="n">
-        <v>40.78725331308897</v>
+        <v>38.79173615537061</v>
       </c>
       <c r="T5" t="n">
-        <v>40.78725331308897</v>
+        <v>38.79173615537061</v>
       </c>
       <c r="U5" t="n">
-        <v>40.78725331308897</v>
+        <v>38.79173615537061</v>
       </c>
       <c r="V5" t="n">
-        <v>40.78725331308897</v>
+        <v>38.79173615537061</v>
       </c>
       <c r="W5" t="n">
-        <v>40.78725331308897</v>
+        <v>38.79173615537061</v>
       </c>
       <c r="X5" t="n">
-        <v>40.78725331308897</v>
+        <v>38.79173615537061</v>
       </c>
       <c r="Y5" t="n">
         <v>38.79173615537061</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8157450662617793</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8157450662617793</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8157450662617793</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8157450662617793</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8157450662617793</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8157450662617793</v>
+        <v>21.41536795166025</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8157450662617793</v>
+        <v>11.11555650896102</v>
       </c>
       <c r="I6" t="n">
         <v>0.8157450662617793</v>
@@ -4655,43 +4655,43 @@
         <v>10.9105902612513</v>
       </c>
       <c r="M6" t="n">
+        <v>10.9105902612513</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10.9105902612513</v>
+      </c>
+      <c r="O6" t="n">
+        <v>10.9105902612513</v>
+      </c>
+      <c r="P6" t="n">
         <v>21.00543545624082</v>
       </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
         <v>31.10028065123034</v>
-      </c>
-      <c r="O6" t="n">
-        <v>40.78725331308897</v>
-      </c>
-      <c r="P6" t="n">
-        <v>40.78725331308897</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>40.78725331308897</v>
       </c>
       <c r="R6" t="n">
         <v>40.78725331308897</v>
       </c>
       <c r="S6" t="n">
-        <v>40.78725331308897</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="T6" t="n">
-        <v>40.78725331308897</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="U6" t="n">
-        <v>30.48744187038973</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="V6" t="n">
-        <v>20.18763042769049</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="W6" t="n">
-        <v>9.887818984991258</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8157450662617793</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.8157450662617793</v>
+        <v>31.71517939435949</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8157450662617793</v>
+        <v>9.887818984991258</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8157450662617793</v>
+        <v>9.887818984991258</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8157450662617793</v>
+        <v>9.887818984991258</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8157450662617793</v>
+        <v>9.887818984991258</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8157450662617793</v>
+        <v>9.887818984991258</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8157450662617793</v>
+        <v>9.887818984991258</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8157450662617793</v>
+        <v>9.887818984991258</v>
       </c>
       <c r="I7" t="n">
         <v>0.8157450662617793</v>
@@ -4731,19 +4731,19 @@
         <v>10.9105902612513</v>
       </c>
       <c r="L7" t="n">
-        <v>21.00543545624082</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="M7" t="n">
         <v>21.00543545624082</v>
       </c>
       <c r="N7" t="n">
-        <v>21.00543545624082</v>
+        <v>31.10028065123034</v>
       </c>
       <c r="O7" t="n">
-        <v>21.00543545624082</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="P7" t="n">
-        <v>31.10028065123034</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="Q7" t="n">
         <v>40.78725331308897</v>
@@ -4752,25 +4752,25 @@
         <v>40.78725331308897</v>
       </c>
       <c r="S7" t="n">
-        <v>31.71517939435949</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="T7" t="n">
-        <v>31.71517939435949</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="U7" t="n">
-        <v>31.71517939435949</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="V7" t="n">
-        <v>21.41536795166025</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="W7" t="n">
-        <v>21.41536795166025</v>
+        <v>30.48744187038973</v>
       </c>
       <c r="X7" t="n">
-        <v>11.11555650896102</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.11555650896102</v>
+        <v>20.18763042769049</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.6109605312852</v>
+        <v>34.60647768900355</v>
       </c>
       <c r="C8" t="n">
-        <v>26.52677388495939</v>
+        <v>28.52229104267774</v>
       </c>
       <c r="D8" t="n">
-        <v>26.103248018424</v>
+        <v>28.09876517614235</v>
       </c>
       <c r="E8" t="n">
-        <v>15.80343657572476</v>
+        <v>17.79895373344311</v>
       </c>
       <c r="F8" t="n">
-        <v>5.503625133025528</v>
+        <v>7.499142290743878</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8157450662617793</v>
+        <v>2.811262223980129</v>
       </c>
       <c r="H8" t="n">
         <v>0.8157450662617793</v>
@@ -4804,19 +4804,19 @@
         <v>0.8157450662617793</v>
       </c>
       <c r="J8" t="n">
+        <v>0.8157450662617793</v>
+      </c>
+      <c r="K8" t="n">
         <v>10.9105902612513</v>
       </c>
-      <c r="K8" t="n">
-        <v>21.00543545624082</v>
-      </c>
       <c r="L8" t="n">
-        <v>21.00543545624082</v>
+        <v>20.59756292310993</v>
       </c>
       <c r="M8" t="n">
-        <v>21.00543545624082</v>
+        <v>30.69240811809945</v>
       </c>
       <c r="N8" t="n">
-        <v>30.69240811809945</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="O8" t="n">
         <v>40.78725331308897</v>
@@ -4834,22 +4834,22 @@
         <v>40.78725331308897</v>
       </c>
       <c r="T8" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="U8" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="V8" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="W8" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="X8" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="Y8" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.11555650896102</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="C9" t="n">
-        <v>11.11555650896102</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="D9" t="n">
-        <v>11.11555650896102</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="E9" t="n">
-        <v>11.11555650896102</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="F9" t="n">
-        <v>11.11555650896102</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="G9" t="n">
-        <v>11.11555650896102</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="H9" t="n">
-        <v>11.11555650896102</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="I9" t="n">
         <v>0.8157450662617793</v>
@@ -4889,19 +4889,19 @@
         <v>0.8157450662617793</v>
       </c>
       <c r="L9" t="n">
-        <v>10.50271772812041</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="M9" t="n">
-        <v>20.59756292310993</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="N9" t="n">
         <v>30.69240811809945</v>
       </c>
       <c r="O9" t="n">
-        <v>30.69240811809945</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="P9" t="n">
-        <v>30.69240811809945</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="Q9" t="n">
         <v>40.78725331308897</v>
@@ -4910,25 +4910,25 @@
         <v>40.78725331308897</v>
       </c>
       <c r="S9" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="T9" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="U9" t="n">
-        <v>20.18763042769049</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="V9" t="n">
-        <v>20.18763042769049</v>
+        <v>21.41536795166025</v>
       </c>
       <c r="W9" t="n">
-        <v>20.18763042769049</v>
+        <v>11.11555650896102</v>
       </c>
       <c r="X9" t="n">
-        <v>20.18763042769049</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.18763042769049</v>
+        <v>0.8157450662617793</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.18763042769049</v>
+        <v>11.11555650896102</v>
       </c>
       <c r="C10" t="n">
-        <v>20.18763042769049</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="D10" t="n">
-        <v>11.11555650896102</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="E10" t="n">
-        <v>11.11555650896102</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="F10" t="n">
-        <v>11.11555650896102</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="G10" t="n">
-        <v>11.11555650896102</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="H10" t="n">
-        <v>11.11555650896102</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="I10" t="n">
         <v>0.8157450662617793</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8157450662617793</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8157450662617793</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8157450662617793</v>
+        <v>30.69240811809945</v>
       </c>
       <c r="M10" t="n">
-        <v>10.9105902612513</v>
+        <v>30.69240811809945</v>
       </c>
       <c r="N10" t="n">
-        <v>21.00543545624082</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="O10" t="n">
-        <v>31.10028065123034</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="P10" t="n">
-        <v>31.10028065123034</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="Q10" t="n">
         <v>40.78725331308897</v>
       </c>
       <c r="R10" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="S10" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="T10" t="n">
-        <v>30.48744187038973</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="U10" t="n">
-        <v>20.18763042769049</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="V10" t="n">
-        <v>20.18763042769049</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="W10" t="n">
-        <v>20.18763042769049</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="X10" t="n">
-        <v>20.18763042769049</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="Y10" t="n">
-        <v>20.18763042769049</v>
+        <v>21.41536795166025</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>999.338191359876</v>
+        <v>1642.462775913857</v>
       </c>
       <c r="C11" t="n">
-        <v>999.338191359876</v>
+        <v>1277.574820714312</v>
       </c>
       <c r="D11" t="n">
-        <v>999.338191359876</v>
+        <v>918.3475262945573</v>
       </c>
       <c r="E11" t="n">
-        <v>630.2346113639577</v>
+        <v>549.243946298639</v>
       </c>
       <c r="F11" t="n">
-        <v>254.4408348048303</v>
+        <v>173.4501697395116</v>
       </c>
       <c r="G11" t="n">
-        <v>50.18365266810993</v>
+        <v>50.18365266810994</v>
       </c>
       <c r="H11" t="n">
-        <v>50.18365266810993</v>
+        <v>50.18365266810994</v>
       </c>
       <c r="I11" t="n">
         <v>47.26294715311772</v>
@@ -5044,25 +5044,25 @@
         <v>383.8605550987581</v>
       </c>
       <c r="K11" t="n">
-        <v>968.7395261185899</v>
+        <v>961.2400266149502</v>
       </c>
       <c r="L11" t="n">
-        <v>1027.43955364696</v>
+        <v>1019.94005414332</v>
       </c>
       <c r="M11" t="n">
-        <v>1105.580766721574</v>
+        <v>1098.081267217935</v>
       </c>
       <c r="N11" t="n">
-        <v>1690.459737741406</v>
+        <v>1179.355479207647</v>
       </c>
       <c r="O11" t="n">
-        <v>1762.54512634633</v>
+        <v>1250.699632118999</v>
       </c>
       <c r="P11" t="n">
-        <v>2347.424097366161</v>
+        <v>1835.57860313883</v>
       </c>
       <c r="Q11" t="n">
-        <v>2363.147357655886</v>
+        <v>2261.596336579008</v>
       </c>
       <c r="R11" t="n">
         <v>2363.147357655886</v>
@@ -5077,16 +5077,16 @@
         <v>2363.147357655886</v>
       </c>
       <c r="V11" t="n">
-        <v>2058.546438479552</v>
+        <v>2363.147357655886</v>
       </c>
       <c r="W11" t="n">
-        <v>1720.022773101905</v>
+        <v>2363.147357655886</v>
       </c>
       <c r="X11" t="n">
-        <v>1720.022773101905</v>
+        <v>2363.147357655886</v>
       </c>
       <c r="Y11" t="n">
-        <v>1364.322735537181</v>
+        <v>2007.447320091161</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>47.26294715311772</v>
       </c>
       <c r="J12" t="n">
-        <v>47.26294715311772</v>
+        <v>289.1599086223246</v>
       </c>
       <c r="K12" t="n">
-        <v>586.9617549957953</v>
+        <v>743.3426270728686</v>
       </c>
       <c r="L12" t="n">
-        <v>1171.840726015627</v>
+        <v>800.5931370798099</v>
       </c>
       <c r="M12" t="n">
-        <v>1756.719697035459</v>
+        <v>1385.472108099642</v>
       </c>
       <c r="N12" t="n">
-        <v>1873.901657858259</v>
+        <v>1467.931500854485</v>
       </c>
       <c r="O12" t="n">
-        <v>1940.336875423473</v>
+        <v>1534.3667184197</v>
       </c>
       <c r="P12" t="n">
-        <v>1985.827102723272</v>
+        <v>1579.856945719499</v>
       </c>
       <c r="Q12" t="n">
         <v>1996.018840425158</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.1805384046417</v>
+        <v>802.180538404642</v>
       </c>
       <c r="C13" t="n">
-        <v>676.3238014535439</v>
+        <v>676.3238014535435</v>
       </c>
       <c r="D13" t="n">
-        <v>562.0657922636389</v>
+        <v>562.0657922636385</v>
       </c>
       <c r="E13" t="n">
-        <v>446.3916126191433</v>
+        <v>446.391612619143</v>
       </c>
       <c r="F13" t="n">
-        <v>326.9971222169196</v>
+        <v>326.9971222169193</v>
       </c>
       <c r="G13" t="n">
         <v>205.427765894963</v>
@@ -5199,16 +5199,16 @@
         <v>47.26294715311772</v>
       </c>
       <c r="J13" t="n">
-        <v>136.4757123987411</v>
+        <v>136.475712398741</v>
       </c>
       <c r="K13" t="n">
-        <v>385.9681220235382</v>
+        <v>385.9681220235379</v>
       </c>
       <c r="L13" t="n">
-        <v>754.9569055065997</v>
+        <v>754.9569055065995</v>
       </c>
       <c r="M13" t="n">
-        <v>1156.832727286662</v>
+        <v>1156.832727286661</v>
       </c>
       <c r="N13" t="n">
         <v>1548.659840064358</v>
@@ -5235,16 +5235,16 @@
         <v>1779.732037665917</v>
       </c>
       <c r="V13" t="n">
-        <v>1551.082928092623</v>
+        <v>1551.082928092624</v>
       </c>
       <c r="W13" t="n">
         <v>1317.249899088683</v>
       </c>
       <c r="X13" t="n">
-        <v>1124.142672435551</v>
+        <v>1124.142672435552</v>
       </c>
       <c r="Y13" t="n">
-        <v>944.643609311501</v>
+        <v>944.6436093115015</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1413.10767924529</v>
+        <v>1140.481776768335</v>
       </c>
       <c r="C14" t="n">
-        <v>1413.10767924529</v>
+        <v>775.5938215687904</v>
       </c>
       <c r="D14" t="n">
-        <v>1413.10767924529</v>
+        <v>416.366527149036</v>
       </c>
       <c r="E14" t="n">
-        <v>1044.004099249372</v>
+        <v>47.26294715311772</v>
       </c>
       <c r="F14" t="n">
-        <v>668.210322690245</v>
+        <v>47.26294715311772</v>
       </c>
       <c r="G14" t="n">
-        <v>305.7093860002473</v>
+        <v>47.26294715311772</v>
       </c>
       <c r="H14" t="n">
-        <v>50.18365266810994</v>
+        <v>47.26294715311772</v>
       </c>
       <c r="I14" t="n">
         <v>47.26294715311772</v>
@@ -5281,22 +5281,22 @@
         <v>383.8605550987581</v>
       </c>
       <c r="K14" t="n">
-        <v>968.7395261185899</v>
+        <v>961.2400266149502</v>
       </c>
       <c r="L14" t="n">
-        <v>1553.618497138422</v>
+        <v>1019.94005414332</v>
       </c>
       <c r="M14" t="n">
-        <v>2046.337032831571</v>
+        <v>1098.081267217935</v>
       </c>
       <c r="N14" t="n">
-        <v>2127.611244821283</v>
+        <v>1179.355479207647</v>
       </c>
       <c r="O14" t="n">
-        <v>2198.955397732635</v>
+        <v>1250.699632118999</v>
       </c>
       <c r="P14" t="n">
-        <v>2245.873076289283</v>
+        <v>1835.57860313883</v>
       </c>
       <c r="Q14" t="n">
         <v>2261.596336579008</v>
@@ -5305,25 +5305,25 @@
         <v>2363.147357655886</v>
       </c>
       <c r="S14" t="n">
-        <v>2295.678766041707</v>
+        <v>2363.147357655886</v>
       </c>
       <c r="T14" t="n">
-        <v>2295.678766041707</v>
+        <v>2363.147357655886</v>
       </c>
       <c r="U14" t="n">
-        <v>2295.678766041707</v>
+        <v>2151.40275835698</v>
       </c>
       <c r="V14" t="n">
-        <v>2133.498985766457</v>
+        <v>1846.801839180646</v>
       </c>
       <c r="W14" t="n">
-        <v>2133.498985766457</v>
+        <v>1846.801839180646</v>
       </c>
       <c r="X14" t="n">
-        <v>1778.092223422595</v>
+        <v>1846.801839180646</v>
       </c>
       <c r="Y14" t="n">
-        <v>1778.092223422595</v>
+        <v>1505.46632094564</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>828.8587164650022</v>
       </c>
       <c r="L15" t="n">
-        <v>1198.350335193035</v>
+        <v>1310.823931643878</v>
       </c>
       <c r="M15" t="n">
-        <v>1272.998511648798</v>
+        <v>1385.472108099642</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.457904403642</v>
+        <v>1467.931500854485</v>
       </c>
       <c r="O15" t="n">
-        <v>1940.336875423473</v>
+        <v>1534.3667184197</v>
       </c>
       <c r="P15" t="n">
-        <v>1985.827102723272</v>
+        <v>1579.856945719499</v>
       </c>
       <c r="Q15" t="n">
         <v>1996.018840425158</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.1805384046415</v>
+        <v>802.1805384046421</v>
       </c>
       <c r="C16" t="n">
-        <v>676.3238014535431</v>
+        <v>676.3238014535436</v>
       </c>
       <c r="D16" t="n">
-        <v>562.0657922636381</v>
+        <v>562.0657922636387</v>
       </c>
       <c r="E16" t="n">
-        <v>446.3916126191425</v>
+        <v>446.3916126191432</v>
       </c>
       <c r="F16" t="n">
-        <v>326.9971222169187</v>
+        <v>326.9971222169195</v>
       </c>
       <c r="G16" t="n">
-        <v>205.4277658949622</v>
+        <v>205.427765894963</v>
       </c>
       <c r="H16" t="n">
-        <v>105.0080596555865</v>
+        <v>105.0080596555874</v>
       </c>
       <c r="I16" t="n">
         <v>47.26294715311772</v>
@@ -5466,22 +5466,22 @@
         <v>2209.682616347903</v>
       </c>
       <c r="T16" t="n">
-        <v>2017.269309672681</v>
+        <v>2017.269309672682</v>
       </c>
       <c r="U16" t="n">
         <v>1779.732037665917</v>
       </c>
       <c r="V16" t="n">
-        <v>1551.082928092623</v>
+        <v>1551.082928092624</v>
       </c>
       <c r="W16" t="n">
         <v>1317.249899088683</v>
       </c>
       <c r="X16" t="n">
-        <v>1124.142672435551</v>
+        <v>1124.142672435552</v>
       </c>
       <c r="Y16" t="n">
-        <v>944.643609311501</v>
+        <v>944.6436093115015</v>
       </c>
     </row>
     <row r="17">
@@ -5491,73 +5491,73 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2176.9196165759</v>
+        <v>2176.919616575899</v>
       </c>
       <c r="C17" t="n">
-        <v>1812.031661376355</v>
+        <v>1812.031661376354</v>
       </c>
       <c r="D17" t="n">
         <v>1452.8043669566</v>
       </c>
       <c r="E17" t="n">
-        <v>1083.700786960682</v>
+        <v>1083.700786960681</v>
       </c>
       <c r="F17" t="n">
-        <v>707.9070104015549</v>
+        <v>707.907010401554</v>
       </c>
       <c r="G17" t="n">
-        <v>345.4060737115572</v>
+        <v>345.4060737115563</v>
       </c>
       <c r="H17" t="n">
-        <v>89.88034037941986</v>
+        <v>89.88034037941895</v>
       </c>
       <c r="I17" t="n">
-        <v>86.95963486442608</v>
+        <v>86.95963486442606</v>
       </c>
       <c r="J17" t="n">
-        <v>423.5572428100666</v>
+        <v>423.5572428100665</v>
       </c>
       <c r="K17" t="n">
         <v>1085.231173356935</v>
       </c>
       <c r="L17" t="n">
-        <v>1951.053144779759</v>
+        <v>1143.931200885305</v>
       </c>
       <c r="M17" t="n">
-        <v>2897.870271058603</v>
+        <v>2090.748327164149</v>
       </c>
       <c r="N17" t="n">
-        <v>3824.308667535986</v>
+        <v>2344.392855382391</v>
       </c>
       <c r="O17" t="n">
-        <v>3895.652820447338</v>
+        <v>3151.625742580372</v>
       </c>
       <c r="P17" t="n">
-        <v>4230.7074618547</v>
+        <v>3820.412988704247</v>
       </c>
       <c r="Q17" t="n">
-        <v>4246.430722144425</v>
+        <v>4246.430722144424</v>
       </c>
       <c r="R17" t="n">
-        <v>4347.981743221304</v>
+        <v>4347.981743221303</v>
       </c>
       <c r="S17" t="n">
-        <v>4280.513151607125</v>
+        <v>4280.513151607124</v>
       </c>
       <c r="T17" t="n">
-        <v>4107.880144514678</v>
+        <v>4107.880144514677</v>
       </c>
       <c r="U17" t="n">
-        <v>3896.135545215772</v>
+        <v>3896.135545215771</v>
       </c>
       <c r="V17" t="n">
-        <v>3591.534626039438</v>
+        <v>3591.534626039437</v>
       </c>
       <c r="W17" t="n">
-        <v>3253.010960661792</v>
+        <v>3253.010960661791</v>
       </c>
       <c r="X17" t="n">
-        <v>2897.604198317929</v>
+        <v>2897.604198317928</v>
       </c>
       <c r="Y17" t="n">
         <v>2541.904160753204</v>
@@ -5588,25 +5588,25 @@
         <v>155.0855261457129</v>
       </c>
       <c r="H18" t="n">
-        <v>89.45774698208466</v>
+        <v>89.45774698208464</v>
       </c>
       <c r="I18" t="n">
-        <v>86.95963486442608</v>
+        <v>86.95963486442606</v>
       </c>
       <c r="J18" t="n">
-        <v>86.95963486442608</v>
+        <v>328.8565963336329</v>
       </c>
       <c r="K18" t="n">
-        <v>115.5846614850358</v>
+        <v>868.5554041763105</v>
       </c>
       <c r="L18" t="n">
-        <v>889.476721984006</v>
+        <v>995.359721603066</v>
       </c>
       <c r="M18" t="n">
-        <v>1831.138952814724</v>
+        <v>1070.007898058829</v>
       </c>
       <c r="N18" t="n">
-        <v>1913.598345569567</v>
+        <v>1152.467290813673</v>
       </c>
       <c r="O18" t="n">
         <v>1980.033563134782</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>841.8772261159507</v>
+        <v>841.8772261159505</v>
       </c>
       <c r="C19" t="n">
-        <v>716.0204891648523</v>
+        <v>716.0204891648521</v>
       </c>
       <c r="D19" t="n">
-        <v>601.7624799749473</v>
+        <v>601.762479974947</v>
       </c>
       <c r="E19" t="n">
-        <v>486.0883003304517</v>
+        <v>486.0883003304515</v>
       </c>
       <c r="F19" t="n">
-        <v>366.6938099282279</v>
+        <v>366.6938099282278</v>
       </c>
       <c r="G19" t="n">
-        <v>245.1244536062714</v>
+        <v>245.1244536062713</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7047473668958</v>
+        <v>144.7047473668957</v>
       </c>
       <c r="I19" t="n">
-        <v>86.95963486442608</v>
+        <v>86.95963486442606</v>
       </c>
       <c r="J19" t="n">
-        <v>176.1724001100493</v>
+        <v>176.1724001100494</v>
       </c>
       <c r="K19" t="n">
-        <v>425.6648097348463</v>
+        <v>425.6648097348464</v>
       </c>
       <c r="L19" t="n">
         <v>794.6535932179079</v>
@@ -5688,28 +5688,28 @@
         <v>1588.356527775667</v>
       </c>
       <c r="O19" t="n">
-        <v>1953.817385757253</v>
+        <v>1953.817385757252</v>
       </c>
       <c r="P19" t="n">
-        <v>2256.507736975298</v>
+        <v>2256.507736975297</v>
       </c>
       <c r="Q19" t="n">
         <v>2402.844045367195</v>
       </c>
       <c r="R19" t="n">
-        <v>2382.789769495672</v>
+        <v>2382.789769495671</v>
       </c>
       <c r="S19" t="n">
-        <v>2249.379304059212</v>
+        <v>2249.379304059211</v>
       </c>
       <c r="T19" t="n">
         <v>2056.96599738399</v>
       </c>
       <c r="U19" t="n">
-        <v>1819.428725377226</v>
+        <v>1819.428725377225</v>
       </c>
       <c r="V19" t="n">
-        <v>1590.779615803933</v>
+        <v>1590.779615803932</v>
       </c>
       <c r="W19" t="n">
         <v>1356.946586799992</v>
@@ -5718,7 +5718,7 @@
         <v>1163.83936014686</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.3402970228101</v>
+        <v>984.3402970228099</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2176.9196165759</v>
+        <v>2176.919616575898</v>
       </c>
       <c r="C20" t="n">
         <v>1812.031661376353</v>
@@ -5737,67 +5737,67 @@
         <v>1452.804366956599</v>
       </c>
       <c r="E20" t="n">
-        <v>1083.700786960681</v>
+        <v>1083.70078696068</v>
       </c>
       <c r="F20" t="n">
-        <v>707.9070104015534</v>
+        <v>707.9070104015532</v>
       </c>
       <c r="G20" t="n">
-        <v>345.4060737115557</v>
+        <v>345.4060737115556</v>
       </c>
       <c r="H20" t="n">
-        <v>89.8803403794183</v>
+        <v>89.88034037941824</v>
       </c>
       <c r="I20" t="n">
-        <v>86.95963486442608</v>
+        <v>86.95963486442606</v>
       </c>
       <c r="J20" t="n">
-        <v>96.78141592233735</v>
+        <v>423.5572428100665</v>
       </c>
       <c r="K20" t="n">
-        <v>132.050819583681</v>
+        <v>1085.231173356935</v>
       </c>
       <c r="L20" t="n">
-        <v>997.8727910065055</v>
+        <v>1951.053144779759</v>
       </c>
       <c r="M20" t="n">
-        <v>1944.689917285349</v>
+        <v>2263.118643392679</v>
       </c>
       <c r="N20" t="n">
-        <v>2871.128313762732</v>
+        <v>2344.392855382391</v>
       </c>
       <c r="O20" t="n">
-        <v>3678.361200960714</v>
+        <v>3151.625742580372</v>
       </c>
       <c r="P20" t="n">
-        <v>3820.412988704248</v>
+        <v>3820.412988704247</v>
       </c>
       <c r="Q20" t="n">
-        <v>4246.430722144425</v>
+        <v>4246.430722144424</v>
       </c>
       <c r="R20" t="n">
-        <v>4347.981743221304</v>
+        <v>4347.981743221303</v>
       </c>
       <c r="S20" t="n">
-        <v>4280.513151607125</v>
+        <v>4280.513151607123</v>
       </c>
       <c r="T20" t="n">
-        <v>4107.880144514678</v>
+        <v>4107.880144514676</v>
       </c>
       <c r="U20" t="n">
-        <v>3896.135545215772</v>
+        <v>3896.13554521577</v>
       </c>
       <c r="V20" t="n">
-        <v>3591.534626039438</v>
+        <v>3591.534626039436</v>
       </c>
       <c r="W20" t="n">
-        <v>3253.010960661792</v>
+        <v>3253.010960661789</v>
       </c>
       <c r="X20" t="n">
-        <v>2897.604198317929</v>
+        <v>2897.604198317927</v>
       </c>
       <c r="Y20" t="n">
-        <v>2541.904160753204</v>
+        <v>2541.904160753202</v>
       </c>
     </row>
     <row r="21">
@@ -5825,19 +5825,19 @@
         <v>155.0855261457129</v>
       </c>
       <c r="H21" t="n">
-        <v>89.45774698208466</v>
+        <v>89.45774698208464</v>
       </c>
       <c r="I21" t="n">
-        <v>86.95963486442608</v>
+        <v>86.95963486442606</v>
       </c>
       <c r="J21" t="n">
-        <v>328.856596333633</v>
+        <v>328.8565963336329</v>
       </c>
       <c r="K21" t="n">
-        <v>868.5554041763106</v>
+        <v>868.5554041763105</v>
       </c>
       <c r="L21" t="n">
-        <v>925.805914183252</v>
+        <v>925.8059141832518</v>
       </c>
       <c r="M21" t="n">
         <v>1000.454090639015</v>
@@ -5849,10 +5849,10 @@
         <v>1149.348700959074</v>
       </c>
       <c r="P21" t="n">
-        <v>1681.369527841088</v>
+        <v>1619.553633430807</v>
       </c>
       <c r="Q21" t="n">
-        <v>2097.531422546747</v>
+        <v>2035.715528136466</v>
       </c>
       <c r="R21" t="n">
         <v>2097.531422546747</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>841.8772261159509</v>
+        <v>841.8772261159505</v>
       </c>
       <c r="C22" t="n">
-        <v>716.0204891648524</v>
+        <v>716.0204891648521</v>
       </c>
       <c r="D22" t="n">
-        <v>601.7624799749474</v>
+        <v>601.762479974947</v>
       </c>
       <c r="E22" t="n">
-        <v>486.0883003304518</v>
+        <v>486.0883003304515</v>
       </c>
       <c r="F22" t="n">
-        <v>366.6938099282281</v>
+        <v>366.6938099282278</v>
       </c>
       <c r="G22" t="n">
-        <v>245.1244536062717</v>
+        <v>245.1244536062713</v>
       </c>
       <c r="H22" t="n">
-        <v>144.704747366896</v>
+        <v>144.7047473668957</v>
       </c>
       <c r="I22" t="n">
-        <v>86.95963486442608</v>
+        <v>86.95963486442606</v>
       </c>
       <c r="J22" t="n">
-        <v>176.1724001100493</v>
+        <v>176.1724001100494</v>
       </c>
       <c r="K22" t="n">
         <v>425.6648097348464</v>
@@ -5934,28 +5934,28 @@
         <v>2402.844045367195</v>
       </c>
       <c r="R22" t="n">
-        <v>2382.789769495672</v>
+        <v>2382.789769495671</v>
       </c>
       <c r="S22" t="n">
-        <v>2249.379304059212</v>
+        <v>2249.379304059211</v>
       </c>
       <c r="T22" t="n">
         <v>2056.96599738399</v>
       </c>
       <c r="U22" t="n">
-        <v>1819.428725377226</v>
+        <v>1819.428725377225</v>
       </c>
       <c r="V22" t="n">
-        <v>1590.779615803933</v>
+        <v>1590.779615803932</v>
       </c>
       <c r="W22" t="n">
         <v>1356.946586799992</v>
       </c>
       <c r="X22" t="n">
-        <v>1163.839360146861</v>
+        <v>1163.83936014686</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.3402970228103</v>
+        <v>984.3402970228099</v>
       </c>
     </row>
     <row r="23">
@@ -5983,13 +5983,13 @@
         <v>345.4060737115556</v>
       </c>
       <c r="H23" t="n">
-        <v>89.88034037941829</v>
+        <v>89.88034037941824</v>
       </c>
       <c r="I23" t="n">
-        <v>86.95963486442608</v>
+        <v>86.95963486442606</v>
       </c>
       <c r="J23" t="n">
-        <v>423.5572428100666</v>
+        <v>423.5572428100665</v>
       </c>
       <c r="K23" t="n">
         <v>1085.231173356935</v>
@@ -5998,22 +5998,22 @@
         <v>1951.053144779759</v>
       </c>
       <c r="M23" t="n">
-        <v>2029.194357854374</v>
+        <v>2263.118643392679</v>
       </c>
       <c r="N23" t="n">
-        <v>2955.632754331757</v>
+        <v>2344.392855382391</v>
       </c>
       <c r="O23" t="n">
-        <v>3762.865641529739</v>
+        <v>3151.625742580372</v>
       </c>
       <c r="P23" t="n">
-        <v>4332.258482931579</v>
+        <v>3820.412988704247</v>
       </c>
       <c r="Q23" t="n">
-        <v>4347.981743221304</v>
+        <v>4246.430722144424</v>
       </c>
       <c r="R23" t="n">
-        <v>4347.981743221304</v>
+        <v>4347.981743221303</v>
       </c>
       <c r="S23" t="n">
         <v>4280.513151607124</v>
@@ -6062,34 +6062,34 @@
         <v>155.0855261457129</v>
       </c>
       <c r="H24" t="n">
-        <v>89.45774698208466</v>
+        <v>89.45774698208464</v>
       </c>
       <c r="I24" t="n">
-        <v>86.95963486442608</v>
+        <v>86.95963486442606</v>
       </c>
       <c r="J24" t="n">
-        <v>86.95963486442608</v>
+        <v>328.8565963336329</v>
       </c>
       <c r="K24" t="n">
-        <v>626.6584427071037</v>
+        <v>357.4816229542427</v>
       </c>
       <c r="L24" t="n">
-        <v>683.9089527140451</v>
+        <v>414.732132961184</v>
       </c>
       <c r="M24" t="n">
-        <v>758.5571291698085</v>
+        <v>489.3803094169474</v>
       </c>
       <c r="N24" t="n">
-        <v>841.0165219246521</v>
+        <v>571.839702171791</v>
       </c>
       <c r="O24" t="n">
-        <v>1020.456369399984</v>
+        <v>1399.4059744929</v>
       </c>
       <c r="P24" t="n">
-        <v>1681.369527841088</v>
+        <v>1619.553633430807</v>
       </c>
       <c r="Q24" t="n">
-        <v>2097.531422546747</v>
+        <v>2035.715528136466</v>
       </c>
       <c r="R24" t="n">
         <v>2097.531422546747</v>
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>841.8772261159506</v>
+        <v>841.8772261159505</v>
       </c>
       <c r="C25" t="n">
-        <v>716.0204891648522</v>
+        <v>716.0204891648521</v>
       </c>
       <c r="D25" t="n">
-        <v>601.7624799749472</v>
+        <v>601.762479974947</v>
       </c>
       <c r="E25" t="n">
-        <v>486.0883003304517</v>
+        <v>486.0883003304515</v>
       </c>
       <c r="F25" t="n">
-        <v>366.6938099282279</v>
+        <v>366.6938099282278</v>
       </c>
       <c r="G25" t="n">
-        <v>245.1244536062714</v>
+        <v>245.1244536062713</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7047473668958</v>
+        <v>144.7047473668957</v>
       </c>
       <c r="I25" t="n">
-        <v>86.95963486442608</v>
+        <v>86.95963486442606</v>
       </c>
       <c r="J25" t="n">
-        <v>176.1724001100496</v>
+        <v>176.1724001100494</v>
       </c>
       <c r="K25" t="n">
-        <v>425.6648097348466</v>
+        <v>425.6648097348464</v>
       </c>
       <c r="L25" t="n">
-        <v>794.6535932179081</v>
+        <v>794.6535932179079</v>
       </c>
       <c r="M25" t="n">
         <v>1196.52941499797</v>
       </c>
       <c r="N25" t="n">
-        <v>1588.356527775667</v>
+        <v>1588.356527775666</v>
       </c>
       <c r="O25" t="n">
         <v>1953.817385757252</v>
@@ -6192,7 +6192,7 @@
         <v>1163.83936014686</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.34029702281</v>
+        <v>984.3402970228099</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1278.495278548355</v>
       </c>
       <c r="F26" t="n">
-        <v>857.4648665020418</v>
+        <v>857.4648665020422</v>
       </c>
       <c r="G26" t="n">
         <v>449.7272943248598</v>
@@ -6229,19 +6229,19 @@
         <v>437.4051924490007</v>
       </c>
       <c r="K26" t="n">
-        <v>472.6745961103443</v>
+        <v>1099.079122995869</v>
       </c>
       <c r="L26" t="n">
-        <v>1338.496567533169</v>
+        <v>1265.085835649751</v>
       </c>
       <c r="M26" t="n">
-        <v>2285.313693812012</v>
+        <v>2211.902961928595</v>
       </c>
       <c r="N26" t="n">
-        <v>3211.752090289396</v>
+        <v>3138.341358405978</v>
       </c>
       <c r="O26" t="n">
-        <v>4018.984977487377</v>
+        <v>3945.57424560396</v>
       </c>
       <c r="P26" t="n">
         <v>4614.361491727835</v>
@@ -6305,28 +6305,28 @@
         <v>100.8075845033602</v>
       </c>
       <c r="J27" t="n">
-        <v>100.8075845033602</v>
+        <v>342.7045459725671</v>
       </c>
       <c r="K27" t="n">
-        <v>129.43261112397</v>
+        <v>371.3295725931769</v>
       </c>
       <c r="L27" t="n">
-        <v>903.3246716229401</v>
+        <v>428.5800826001182</v>
       </c>
       <c r="M27" t="n">
-        <v>977.9728480787035</v>
+        <v>1403.193980651482</v>
       </c>
       <c r="N27" t="n">
-        <v>1228.131134862889</v>
+        <v>1521.476138204728</v>
       </c>
       <c r="O27" t="n">
-        <v>2055.697407183998</v>
+        <v>1587.911355769943</v>
       </c>
       <c r="P27" t="n">
-        <v>2101.187634483796</v>
+        <v>1633.401583069741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2111.379372185681</v>
+        <v>2049.5634777754</v>
       </c>
       <c r="R27" t="n">
         <v>2111.379372185681</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>585.2385247353685</v>
+        <v>908.4890610438447</v>
       </c>
       <c r="C28" t="n">
-        <v>585.2385247353685</v>
+        <v>737.3956886055612</v>
       </c>
       <c r="D28" t="n">
-        <v>585.2385247353685</v>
+        <v>577.9010439284712</v>
       </c>
       <c r="E28" t="n">
-        <v>585.2385247353685</v>
+        <v>577.9010439284712</v>
       </c>
       <c r="F28" t="n">
-        <v>420.6073988459598</v>
+        <v>413.2699180390624</v>
       </c>
       <c r="G28" t="n">
-        <v>349.4456742195756</v>
+        <v>246.4639262299209</v>
       </c>
       <c r="H28" t="n">
-        <v>203.7893324930149</v>
+        <v>100.8075845033602</v>
       </c>
       <c r="I28" t="n">
         <v>100.8075845033602</v>
@@ -6423,13 +6423,13 @@
         <v>1089.043887837729</v>
       </c>
       <c r="W28" t="n">
-        <v>809.9742233466038</v>
+        <v>1089.043887837729</v>
       </c>
       <c r="X28" t="n">
-        <v>809.9742233466038</v>
+        <v>1089.043887837729</v>
       </c>
       <c r="Y28" t="n">
-        <v>585.2385247353685</v>
+        <v>1089.043887837729</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2507.424014625129</v>
+        <v>2507.424014625127</v>
       </c>
       <c r="C29" t="n">
-        <v>2097.299423938399</v>
+        <v>2097.299423938397</v>
       </c>
       <c r="D29" t="n">
-        <v>1692.835494031459</v>
+        <v>1692.835494031458</v>
       </c>
       <c r="E29" t="n">
-        <v>1278.495278548357</v>
+        <v>1278.495278548355</v>
       </c>
       <c r="F29" t="n">
-        <v>857.4648665020436</v>
+        <v>857.4648665020418</v>
       </c>
       <c r="G29" t="n">
-        <v>449.7272943248608</v>
+        <v>449.7272943248599</v>
       </c>
       <c r="H29" t="n">
-        <v>148.9649255055381</v>
+        <v>148.9649255055375</v>
       </c>
       <c r="I29" t="n">
-        <v>100.8075845033603</v>
+        <v>100.8075845033602</v>
       </c>
       <c r="J29" t="n">
-        <v>110.6293655612716</v>
+        <v>437.4051924490007</v>
       </c>
       <c r="K29" t="n">
-        <v>772.3032961081398</v>
+        <v>1099.079122995869</v>
       </c>
       <c r="L29" t="n">
-        <v>1638.125267530964</v>
+        <v>1964.901094418693</v>
       </c>
       <c r="M29" t="n">
-        <v>2520.64641400217</v>
+        <v>2211.902961928595</v>
       </c>
       <c r="N29" t="n">
-        <v>3447.084810479553</v>
+        <v>3138.341358405978</v>
       </c>
       <c r="O29" t="n">
-        <v>4254.317697677535</v>
+        <v>3945.57424560396</v>
       </c>
       <c r="P29" t="n">
-        <v>4923.10494380141</v>
+        <v>4614.361491727835</v>
       </c>
       <c r="Q29" t="n">
-        <v>4938.828204091134</v>
+        <v>5040.379225168012</v>
       </c>
       <c r="R29" t="n">
-        <v>5040.379225168013</v>
+        <v>5040.379225168012</v>
       </c>
       <c r="S29" t="n">
-        <v>4927.673998066649</v>
+        <v>4927.673998066647</v>
       </c>
       <c r="T29" t="n">
-        <v>4709.804355487017</v>
+        <v>4709.804355487016</v>
       </c>
       <c r="U29" t="n">
-        <v>4452.823120700927</v>
+        <v>4452.823120700925</v>
       </c>
       <c r="V29" t="n">
-        <v>4102.985566037407</v>
+        <v>4102.985566037405</v>
       </c>
       <c r="W29" t="n">
-        <v>3719.225265172576</v>
+        <v>3719.225265172574</v>
       </c>
       <c r="X29" t="n">
-        <v>3318.581867341528</v>
+        <v>3318.581867341526</v>
       </c>
       <c r="Y29" t="n">
-        <v>2917.645194289618</v>
+        <v>2917.645194289616</v>
       </c>
     </row>
     <row r="30">
@@ -6518,55 +6518,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>755.738435712901</v>
+        <v>755.7384357129008</v>
       </c>
       <c r="C30" t="n">
-        <v>621.7433644618467</v>
+        <v>621.7433644618466</v>
       </c>
       <c r="D30" t="n">
-        <v>504.8462066812391</v>
+        <v>504.846206681239</v>
       </c>
       <c r="E30" t="n">
-        <v>384.3533906735671</v>
+        <v>384.353390673567</v>
       </c>
       <c r="F30" t="n">
-        <v>275.3935108560717</v>
+        <v>275.3935108560716</v>
       </c>
       <c r="G30" t="n">
-        <v>168.9334757846472</v>
+        <v>168.9334757846471</v>
       </c>
       <c r="H30" t="n">
-        <v>103.3056966210189</v>
+        <v>103.3056966210188</v>
       </c>
       <c r="I30" t="n">
-        <v>100.8075845033603</v>
+        <v>100.8075845033602</v>
       </c>
       <c r="J30" t="n">
-        <v>100.8075845033603</v>
+        <v>342.7045459725671</v>
       </c>
       <c r="K30" t="n">
-        <v>129.43261112397</v>
+        <v>882.4033538152447</v>
       </c>
       <c r="L30" t="n">
-        <v>186.6831211309114</v>
+        <v>1364.368568994121</v>
       </c>
       <c r="M30" t="n">
-        <v>918.6673508822279</v>
+        <v>1439.016745449884</v>
       </c>
       <c r="N30" t="n">
-        <v>1927.446295208502</v>
+        <v>1521.476138204728</v>
       </c>
       <c r="O30" t="n">
-        <v>1993.881512773717</v>
+        <v>1587.911355769943</v>
       </c>
       <c r="P30" t="n">
-        <v>2039.371740073515</v>
+        <v>1633.401583069741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2049.563477775401</v>
+        <v>2049.5634777754</v>
       </c>
       <c r="R30" t="n">
-        <v>2111.379372185682</v>
+        <v>2111.379372185681</v>
       </c>
       <c r="S30" t="n">
         <v>2013.235321494258</v>
@@ -6575,7 +6575,7 @@
         <v>1856.030042450931</v>
       </c>
       <c r="U30" t="n">
-        <v>1658.714105116403</v>
+        <v>1658.714105116402</v>
       </c>
       <c r="V30" t="n">
         <v>1445.002578109436</v>
@@ -6584,10 +6584,10 @@
         <v>1231.769409845765</v>
       </c>
       <c r="X30" t="n">
-        <v>1055.443427984658</v>
+        <v>1055.443427984657</v>
       </c>
       <c r="Y30" t="n">
-        <v>896.0414683484877</v>
+        <v>896.0414683484875</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>756.9375426398231</v>
+        <v>159.1949562010076</v>
       </c>
       <c r="C31" t="n">
-        <v>585.8441702015396</v>
+        <v>100.8075845033602</v>
       </c>
       <c r="D31" t="n">
-        <v>426.3495255244495</v>
+        <v>100.8075845033602</v>
       </c>
       <c r="E31" t="n">
-        <v>265.438710392769</v>
+        <v>100.8075845033602</v>
       </c>
       <c r="F31" t="n">
-        <v>100.8075845033603</v>
+        <v>100.8075845033602</v>
       </c>
       <c r="G31" t="n">
-        <v>100.8075845033603</v>
+        <v>100.8075845033602</v>
       </c>
       <c r="H31" t="n">
-        <v>100.8075845033603</v>
+        <v>100.8075845033602</v>
       </c>
       <c r="I31" t="n">
-        <v>100.8075845033603</v>
+        <v>100.8075845033602</v>
       </c>
       <c r="J31" t="n">
         <v>145.6839233079935</v>
@@ -6651,22 +6651,22 @@
         <v>1883.353482554563</v>
       </c>
       <c r="T31" t="n">
-        <v>1883.353482554563</v>
+        <v>1645.703540392157</v>
       </c>
       <c r="U31" t="n">
-        <v>1681.602554845897</v>
+        <v>1362.929632898208</v>
       </c>
       <c r="V31" t="n">
-        <v>1407.716809785419</v>
+        <v>1089.043887837729</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.716809785419</v>
+        <v>809.9742233466038</v>
       </c>
       <c r="X31" t="n">
-        <v>1169.372947645103</v>
+        <v>571.6303612062873</v>
       </c>
       <c r="Y31" t="n">
-        <v>944.6372490338674</v>
+        <v>346.894662595052</v>
       </c>
     </row>
     <row r="32">
@@ -6706,22 +6706,22 @@
         <v>1099.079122995869</v>
       </c>
       <c r="L32" t="n">
-        <v>1964.901094418693</v>
+        <v>1899.423548859502</v>
       </c>
       <c r="M32" t="n">
-        <v>2110.351940851717</v>
+        <v>2846.240675138346</v>
       </c>
       <c r="N32" t="n">
-        <v>3036.7903373291</v>
+        <v>3772.679071615729</v>
       </c>
       <c r="O32" t="n">
-        <v>3844.023224527082</v>
+        <v>3844.023224527081</v>
       </c>
       <c r="P32" t="n">
-        <v>4512.810470650957</v>
+        <v>4512.810470650956</v>
       </c>
       <c r="Q32" t="n">
-        <v>4938.828204091134</v>
+        <v>4938.828204091133</v>
       </c>
       <c r="R32" t="n">
         <v>5040.379225168012</v>
@@ -6779,28 +6779,28 @@
         <v>100.8075845033602</v>
       </c>
       <c r="J33" t="n">
-        <v>100.8075845033602</v>
+        <v>342.7045459725671</v>
       </c>
       <c r="K33" t="n">
-        <v>640.5063923460378</v>
+        <v>882.4033538152447</v>
       </c>
       <c r="L33" t="n">
-        <v>697.7569023529792</v>
+        <v>1364.368568994121</v>
       </c>
       <c r="M33" t="n">
-        <v>772.4050788087426</v>
+        <v>1439.016745449884</v>
       </c>
       <c r="N33" t="n">
-        <v>854.8644715635862</v>
+        <v>1521.476138204728</v>
       </c>
       <c r="O33" t="n">
-        <v>1649.727250180224</v>
+        <v>1587.911355769943</v>
       </c>
       <c r="P33" t="n">
-        <v>1695.217477480022</v>
+        <v>1633.401583069741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2111.379372185681</v>
+        <v>2049.5634777754</v>
       </c>
       <c r="R33" t="n">
         <v>2111.379372185681</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.2881647400689</v>
+        <v>346.894662595052</v>
       </c>
       <c r="C34" t="n">
-        <v>524.1947923017854</v>
+        <v>346.894662595052</v>
       </c>
       <c r="D34" t="n">
-        <v>364.7001476246954</v>
+        <v>346.894662595052</v>
       </c>
       <c r="E34" t="n">
-        <v>203.7893324930149</v>
+        <v>246.4639262299209</v>
       </c>
       <c r="F34" t="n">
-        <v>203.7893324930149</v>
+        <v>246.4639262299209</v>
       </c>
       <c r="G34" t="n">
-        <v>203.7893324930149</v>
+        <v>246.4639262299209</v>
       </c>
       <c r="H34" t="n">
-        <v>203.7893324930149</v>
+        <v>100.8075845033602</v>
       </c>
       <c r="I34" t="n">
         <v>100.8075845033602</v>
@@ -6888,22 +6888,22 @@
         <v>1883.353482554563</v>
       </c>
       <c r="T34" t="n">
-        <v>1883.353482554563</v>
+        <v>1645.703540392157</v>
       </c>
       <c r="U34" t="n">
-        <v>1883.353482554563</v>
+        <v>1362.929632898208</v>
       </c>
       <c r="V34" t="n">
-        <v>1609.467737494085</v>
+        <v>1089.043887837729</v>
       </c>
       <c r="W34" t="n">
-        <v>1346.067431885665</v>
+        <v>809.9742233466038</v>
       </c>
       <c r="X34" t="n">
-        <v>1107.723569745348</v>
+        <v>571.6303612062873</v>
       </c>
       <c r="Y34" t="n">
-        <v>882.9878711341132</v>
+        <v>346.894662595052</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2176.919616575899</v>
+        <v>2176.9196165759</v>
       </c>
       <c r="C35" t="n">
-        <v>1812.031661376354</v>
+        <v>1812.031661376355</v>
       </c>
       <c r="D35" t="n">
         <v>1452.8043669566</v>
       </c>
       <c r="E35" t="n">
-        <v>1083.700786960681</v>
+        <v>1083.700786960682</v>
       </c>
       <c r="F35" t="n">
-        <v>707.907010401554</v>
+        <v>707.9070104015549</v>
       </c>
       <c r="G35" t="n">
-        <v>345.4060737115563</v>
+        <v>345.4060737115572</v>
       </c>
       <c r="H35" t="n">
-        <v>89.88034037941895</v>
+        <v>89.88034037941986</v>
       </c>
       <c r="I35" t="n">
-        <v>86.95963486442606</v>
+        <v>86.95963486442608</v>
       </c>
       <c r="J35" t="n">
-        <v>423.5572428100665</v>
+        <v>423.5572428100664</v>
       </c>
       <c r="K35" t="n">
         <v>1085.231173356935</v>
@@ -6946,40 +6946,40 @@
         <v>1951.053144779759</v>
       </c>
       <c r="M35" t="n">
-        <v>2897.870271058603</v>
+        <v>2263.11864339268</v>
       </c>
       <c r="N35" t="n">
-        <v>3376.55689610007</v>
+        <v>2344.392855382393</v>
       </c>
       <c r="O35" t="n">
-        <v>4183.789783298052</v>
+        <v>3151.625742580374</v>
       </c>
       <c r="P35" t="n">
-        <v>4230.707461854699</v>
+        <v>3820.412988704248</v>
       </c>
       <c r="Q35" t="n">
-        <v>4246.430722144424</v>
+        <v>4246.430722144425</v>
       </c>
       <c r="R35" t="n">
-        <v>4347.981743221303</v>
+        <v>4347.981743221304</v>
       </c>
       <c r="S35" t="n">
-        <v>4280.513151607124</v>
+        <v>4280.513151607125</v>
       </c>
       <c r="T35" t="n">
-        <v>4107.880144514677</v>
+        <v>4107.880144514678</v>
       </c>
       <c r="U35" t="n">
-        <v>3896.135545215771</v>
+        <v>3896.135545215772</v>
       </c>
       <c r="V35" t="n">
-        <v>3591.534626039437</v>
+        <v>3591.534626039438</v>
       </c>
       <c r="W35" t="n">
-        <v>3253.010960661791</v>
+        <v>3253.010960661792</v>
       </c>
       <c r="X35" t="n">
-        <v>2897.604198317928</v>
+        <v>2897.604198317929</v>
       </c>
       <c r="Y35" t="n">
         <v>2541.904160753204</v>
@@ -7010,31 +7010,31 @@
         <v>155.0855261457129</v>
       </c>
       <c r="H36" t="n">
-        <v>89.45774698208464</v>
+        <v>89.45774698208467</v>
       </c>
       <c r="I36" t="n">
-        <v>86.95963486442606</v>
+        <v>86.95963486442608</v>
       </c>
       <c r="J36" t="n">
-        <v>86.95963486442606</v>
+        <v>328.8565963336329</v>
       </c>
       <c r="K36" t="n">
-        <v>115.5846614850358</v>
+        <v>868.5554041763105</v>
       </c>
       <c r="L36" t="n">
-        <v>889.476721984006</v>
+        <v>1350.520619355187</v>
       </c>
       <c r="M36" t="n">
-        <v>1831.138952814724</v>
+        <v>1425.168795810951</v>
       </c>
       <c r="N36" t="n">
-        <v>1913.598345569567</v>
+        <v>1507.628188565794</v>
       </c>
       <c r="O36" t="n">
-        <v>1980.033563134782</v>
+        <v>1574.063406131009</v>
       </c>
       <c r="P36" t="n">
-        <v>2025.523790434581</v>
+        <v>1619.553633430807</v>
       </c>
       <c r="Q36" t="n">
         <v>2035.715528136466</v>
@@ -7077,13 +7077,13 @@
         <v>716.0204891648521</v>
       </c>
       <c r="D37" t="n">
-        <v>601.762479974947</v>
+        <v>601.7624799749472</v>
       </c>
       <c r="E37" t="n">
-        <v>486.0883003304515</v>
+        <v>486.0883003304516</v>
       </c>
       <c r="F37" t="n">
-        <v>366.6938099282278</v>
+        <v>366.6938099282279</v>
       </c>
       <c r="G37" t="n">
         <v>245.1244536062713</v>
@@ -7092,7 +7092,7 @@
         <v>144.7047473668957</v>
       </c>
       <c r="I37" t="n">
-        <v>86.95963486442606</v>
+        <v>86.95963486442608</v>
       </c>
       <c r="J37" t="n">
         <v>176.1724001100494</v>
@@ -7171,34 +7171,34 @@
         <v>89.88034037941826</v>
       </c>
       <c r="I38" t="n">
-        <v>86.95963486442606</v>
+        <v>86.95963486442608</v>
       </c>
       <c r="J38" t="n">
-        <v>96.78141592233735</v>
+        <v>423.5572428100666</v>
       </c>
       <c r="K38" t="n">
-        <v>758.4553464692056</v>
+        <v>1085.231173356935</v>
       </c>
       <c r="L38" t="n">
-        <v>1624.27731789203</v>
+        <v>1951.053144779759</v>
       </c>
       <c r="M38" t="n">
-        <v>1702.418530966645</v>
+        <v>2029.194357854374</v>
       </c>
       <c r="N38" t="n">
-        <v>2445.94387645927</v>
+        <v>2955.632754331757</v>
       </c>
       <c r="O38" t="n">
-        <v>3253.176763657251</v>
+        <v>3151.625742580373</v>
       </c>
       <c r="P38" t="n">
-        <v>3921.964009781126</v>
+        <v>3820.412988704248</v>
       </c>
       <c r="Q38" t="n">
-        <v>4347.981743221303</v>
+        <v>4246.430722144425</v>
       </c>
       <c r="R38" t="n">
-        <v>4347.981743221303</v>
+        <v>4347.981743221304</v>
       </c>
       <c r="S38" t="n">
         <v>4280.513151607124</v>
@@ -7213,13 +7213,13 @@
         <v>3591.534626039437</v>
       </c>
       <c r="W38" t="n">
-        <v>3253.010960661791</v>
+        <v>3253.01096066179</v>
       </c>
       <c r="X38" t="n">
         <v>2897.604198317928</v>
       </c>
       <c r="Y38" t="n">
-        <v>2541.904160753204</v>
+        <v>2541.904160753203</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>155.0855261457129</v>
       </c>
       <c r="H39" t="n">
-        <v>89.45774698208464</v>
+        <v>89.45774698208466</v>
       </c>
       <c r="I39" t="n">
-        <v>86.95963486442606</v>
+        <v>86.95963486442608</v>
       </c>
       <c r="J39" t="n">
-        <v>86.95963486442606</v>
+        <v>328.856596333633</v>
       </c>
       <c r="K39" t="n">
-        <v>115.5846614850358</v>
+        <v>868.5554041763106</v>
       </c>
       <c r="L39" t="n">
-        <v>172.8351714919771</v>
+        <v>925.805914183252</v>
       </c>
       <c r="M39" t="n">
-        <v>247.4833479477406</v>
+        <v>1000.454090639015</v>
       </c>
       <c r="N39" t="n">
-        <v>1256.262292274014</v>
+        <v>1082.913483393859</v>
       </c>
       <c r="O39" t="n">
-        <v>1980.033563134782</v>
+        <v>1149.348700959074</v>
       </c>
       <c r="P39" t="n">
-        <v>2025.523790434581</v>
+        <v>1619.553633430807</v>
       </c>
       <c r="Q39" t="n">
         <v>2035.715528136466</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>841.8772261159503</v>
+        <v>841.8772261159505</v>
       </c>
       <c r="C40" t="n">
-        <v>716.0204891648518</v>
+        <v>716.0204891648521</v>
       </c>
       <c r="D40" t="n">
-        <v>601.7624799749468</v>
+        <v>601.7624799749472</v>
       </c>
       <c r="E40" t="n">
-        <v>486.0883003304513</v>
+        <v>486.0883003304516</v>
       </c>
       <c r="F40" t="n">
-        <v>366.6938099282276</v>
+        <v>366.6938099282279</v>
       </c>
       <c r="G40" t="n">
-        <v>245.1244536062711</v>
+        <v>245.1244536062713</v>
       </c>
       <c r="H40" t="n">
         <v>144.7047473668957</v>
       </c>
       <c r="I40" t="n">
-        <v>86.95963486442606</v>
+        <v>86.95963486442608</v>
       </c>
       <c r="J40" t="n">
         <v>176.1724001100494</v>
@@ -7377,7 +7377,7 @@
         <v>1163.83936014686</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.3402970228096</v>
+        <v>984.3402970228099</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1642.756051134719</v>
+        <v>1998.162813478582</v>
       </c>
       <c r="C41" t="n">
-        <v>1277.868095935174</v>
+        <v>1769.414268150053</v>
       </c>
       <c r="D41" t="n">
-        <v>918.6408015154196</v>
+        <v>1410.186973730298</v>
       </c>
       <c r="E41" t="n">
-        <v>549.5372215195014</v>
+        <v>1041.08339373438</v>
       </c>
       <c r="F41" t="n">
-        <v>549.5372215195014</v>
+        <v>665.2896171752527</v>
       </c>
       <c r="G41" t="n">
-        <v>187.0362848295037</v>
+        <v>302.788680485255</v>
       </c>
       <c r="H41" t="n">
-        <v>47.26294715311772</v>
+        <v>47.26294715311774</v>
       </c>
       <c r="I41" t="n">
-        <v>47.26294715311772</v>
+        <v>47.26294715311774</v>
       </c>
       <c r="J41" t="n">
-        <v>57.084728211029</v>
+        <v>383.8605550987582</v>
       </c>
       <c r="K41" t="n">
-        <v>363.0442726834276</v>
+        <v>968.7395261185902</v>
       </c>
       <c r="L41" t="n">
-        <v>947.9232437032593</v>
+        <v>1027.43955364696</v>
       </c>
       <c r="M41" t="n">
-        <v>1532.802214723091</v>
+        <v>1105.580766721575</v>
       </c>
       <c r="N41" t="n">
-        <v>1614.076426712803</v>
+        <v>1186.854978711287</v>
       </c>
       <c r="O41" t="n">
-        <v>2198.955397732635</v>
+        <v>1258.199131622639</v>
       </c>
       <c r="P41" t="n">
-        <v>2245.873076289283</v>
+        <v>1835.578603138831</v>
       </c>
       <c r="Q41" t="n">
         <v>2261.596336579008</v>
       </c>
       <c r="R41" t="n">
-        <v>2363.147357655886</v>
+        <v>2363.147357655887</v>
       </c>
       <c r="S41" t="n">
-        <v>2363.147357655886</v>
+        <v>2363.147357655887</v>
       </c>
       <c r="T41" t="n">
-        <v>2363.147357655886</v>
+        <v>2363.147357655887</v>
       </c>
       <c r="U41" t="n">
-        <v>2363.147357655886</v>
+        <v>2363.147357655887</v>
       </c>
       <c r="V41" t="n">
-        <v>2363.147357655886</v>
+        <v>2363.147357655887</v>
       </c>
       <c r="W41" t="n">
-        <v>2363.147357655886</v>
+        <v>2363.147357655887</v>
       </c>
       <c r="X41" t="n">
-        <v>2007.740595312024</v>
+        <v>2363.147357655887</v>
       </c>
       <c r="Y41" t="n">
-        <v>2007.740595312024</v>
+        <v>2363.147357655887</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>115.3888384344046</v>
       </c>
       <c r="H42" t="n">
-        <v>49.7610592707763</v>
+        <v>49.76105927077632</v>
       </c>
       <c r="I42" t="n">
-        <v>47.26294715311772</v>
+        <v>47.26294715311774</v>
       </c>
       <c r="J42" t="n">
-        <v>47.26294715311772</v>
+        <v>289.1599086223246</v>
       </c>
       <c r="K42" t="n">
-        <v>75.88797377372748</v>
+        <v>828.8587164650023</v>
       </c>
       <c r="L42" t="n">
-        <v>660.7669447935592</v>
+        <v>886.1092264719437</v>
       </c>
       <c r="M42" t="n">
-        <v>770.5789333838101</v>
+        <v>960.7574029277071</v>
       </c>
       <c r="N42" t="n">
-        <v>1355.457904403642</v>
+        <v>1043.216795682551</v>
       </c>
       <c r="O42" t="n">
-        <v>1940.336875423473</v>
+        <v>1109.652013247765</v>
       </c>
       <c r="P42" t="n">
-        <v>1985.827102723272</v>
+        <v>1579.856945719499</v>
       </c>
       <c r="Q42" t="n">
         <v>1996.018840425158</v>
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.1805384046422</v>
+        <v>802.1805384046419</v>
       </c>
       <c r="C43" t="n">
-        <v>676.3238014535438</v>
+        <v>676.3238014535434</v>
       </c>
       <c r="D43" t="n">
-        <v>562.0657922636387</v>
+        <v>562.0657922636385</v>
       </c>
       <c r="E43" t="n">
-        <v>446.3916126191432</v>
+        <v>446.3916126191431</v>
       </c>
       <c r="F43" t="n">
-        <v>326.9971222169195</v>
+        <v>326.9971222169194</v>
       </c>
       <c r="G43" t="n">
-        <v>205.427765894963</v>
+        <v>205.4277658949629</v>
       </c>
       <c r="H43" t="n">
-        <v>105.0080596555874</v>
+        <v>105.0080596555873</v>
       </c>
       <c r="I43" t="n">
-        <v>47.26294715311772</v>
+        <v>47.26294715311774</v>
       </c>
       <c r="J43" t="n">
-        <v>136.475712398741</v>
+        <v>136.4757123987411</v>
       </c>
       <c r="K43" t="n">
         <v>385.968122023538</v>
       </c>
       <c r="L43" t="n">
-        <v>754.9569055065995</v>
+        <v>754.9569055065996</v>
       </c>
       <c r="M43" t="n">
-        <v>1156.832727286661</v>
+        <v>1156.832727286662</v>
       </c>
       <c r="N43" t="n">
-        <v>1548.659840064358</v>
+        <v>1548.659840064359</v>
       </c>
       <c r="O43" t="n">
         <v>1914.120698045944</v>
@@ -7590,31 +7590,31 @@
         <v>2216.811049263989</v>
       </c>
       <c r="Q43" t="n">
-        <v>2363.147357655886</v>
+        <v>2363.147357655887</v>
       </c>
       <c r="R43" t="n">
-        <v>2343.093081784363</v>
+        <v>2343.093081784362</v>
       </c>
       <c r="S43" t="n">
-        <v>2209.682616347903</v>
+        <v>2209.682616347902</v>
       </c>
       <c r="T43" t="n">
-        <v>2017.269309672682</v>
+        <v>2017.269309672681</v>
       </c>
       <c r="U43" t="n">
-        <v>1779.732037665917</v>
+        <v>1779.732037665916</v>
       </c>
       <c r="V43" t="n">
-        <v>1551.082928092624</v>
+        <v>1551.082928092623</v>
       </c>
       <c r="W43" t="n">
-        <v>1317.249899088684</v>
+        <v>1317.249899088683</v>
       </c>
       <c r="X43" t="n">
         <v>1124.142672435552</v>
       </c>
       <c r="Y43" t="n">
-        <v>944.6436093115016</v>
+        <v>944.6436093115012</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1516.809240332908</v>
+        <v>681.5031625593747</v>
       </c>
       <c r="C44" t="n">
-        <v>1516.809240332908</v>
+        <v>681.5031625593747</v>
       </c>
       <c r="D44" t="n">
-        <v>1157.581945913153</v>
+        <v>681.5031625593747</v>
       </c>
       <c r="E44" t="n">
-        <v>788.478365917235</v>
+        <v>681.5031625593747</v>
       </c>
       <c r="F44" t="n">
-        <v>412.6845893581076</v>
+        <v>305.7093860002473</v>
       </c>
       <c r="G44" t="n">
-        <v>50.18365266810992</v>
+        <v>305.7093860002473</v>
       </c>
       <c r="H44" t="n">
-        <v>50.18365266810992</v>
+        <v>50.18365266810991</v>
       </c>
       <c r="I44" t="n">
-        <v>47.26294715311772</v>
+        <v>47.26294715311773</v>
       </c>
       <c r="J44" t="n">
-        <v>57.084728211029</v>
+        <v>383.8605550987582</v>
       </c>
       <c r="K44" t="n">
-        <v>92.35413187237266</v>
+        <v>961.2400266149507</v>
       </c>
       <c r="L44" t="n">
-        <v>151.0541594007428</v>
+        <v>1019.940054143321</v>
       </c>
       <c r="M44" t="n">
-        <v>735.9331304205746</v>
+        <v>1098.081267217935</v>
       </c>
       <c r="N44" t="n">
-        <v>1320.812101440406</v>
+        <v>1179.355479207648</v>
       </c>
       <c r="O44" t="n">
-        <v>1905.691072460238</v>
+        <v>1250.699632118999</v>
       </c>
       <c r="P44" t="n">
-        <v>2245.873076289283</v>
+        <v>1835.578603138831</v>
       </c>
       <c r="Q44" t="n">
         <v>2261.596336579008</v>
@@ -7678,22 +7678,22 @@
         <v>2295.678766041707</v>
       </c>
       <c r="T44" t="n">
-        <v>2295.678766041707</v>
+        <v>2123.045758949261</v>
       </c>
       <c r="U44" t="n">
-        <v>2295.678766041707</v>
+        <v>1911.301159650355</v>
       </c>
       <c r="V44" t="n">
-        <v>2237.200546854075</v>
+        <v>1606.700240474021</v>
       </c>
       <c r="W44" t="n">
-        <v>2237.200546854075</v>
+        <v>1606.700240474021</v>
       </c>
       <c r="X44" t="n">
-        <v>1881.793784510212</v>
+        <v>1402.187744301404</v>
       </c>
       <c r="Y44" t="n">
-        <v>1881.793784510212</v>
+        <v>1046.487706736679</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>115.3888384344046</v>
       </c>
       <c r="H45" t="n">
-        <v>49.7610592707763</v>
+        <v>49.76105927077631</v>
       </c>
       <c r="I45" t="n">
-        <v>47.26294715311772</v>
+        <v>47.26294715311773</v>
       </c>
       <c r="J45" t="n">
-        <v>47.26294715311772</v>
+        <v>289.1599086223246</v>
       </c>
       <c r="K45" t="n">
-        <v>75.88797377372748</v>
+        <v>828.8587164650023</v>
       </c>
       <c r="L45" t="n">
-        <v>660.7669447935592</v>
+        <v>886.1092264719437</v>
       </c>
       <c r="M45" t="n">
-        <v>811.4498375286747</v>
+        <v>960.7574029277071</v>
       </c>
       <c r="N45" t="n">
-        <v>1396.328808548506</v>
+        <v>1043.216795682551</v>
       </c>
       <c r="O45" t="n">
-        <v>1462.764026113721</v>
+        <v>1109.652013247765</v>
       </c>
       <c r="P45" t="n">
-        <v>2047.642997133553</v>
+        <v>1579.856945719499</v>
       </c>
       <c r="Q45" t="n">
-        <v>2057.834734835439</v>
+        <v>1996.018840425158</v>
       </c>
       <c r="R45" t="n">
         <v>2057.834734835439</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.1805384046422</v>
+        <v>802.1805384046423</v>
       </c>
       <c r="C46" t="n">
-        <v>676.3238014535438</v>
+        <v>676.3238014535439</v>
       </c>
       <c r="D46" t="n">
-        <v>562.0657922636387</v>
+        <v>562.065792263639</v>
       </c>
       <c r="E46" t="n">
         <v>446.3916126191432</v>
@@ -7803,16 +7803,16 @@
         <v>105.0080596555874</v>
       </c>
       <c r="I46" t="n">
-        <v>47.26294715311772</v>
+        <v>47.26294715311773</v>
       </c>
       <c r="J46" t="n">
         <v>136.475712398741</v>
       </c>
       <c r="K46" t="n">
-        <v>385.968122023538</v>
+        <v>385.9681220235381</v>
       </c>
       <c r="L46" t="n">
-        <v>754.956905506599</v>
+        <v>754.9569055065997</v>
       </c>
       <c r="M46" t="n">
         <v>1156.832727286661</v>
@@ -7836,22 +7836,22 @@
         <v>2209.682616347903</v>
       </c>
       <c r="T46" t="n">
-        <v>2017.269309672681</v>
+        <v>2017.269309672682</v>
       </c>
       <c r="U46" t="n">
         <v>1779.732037665917</v>
       </c>
       <c r="V46" t="n">
-        <v>1551.082928092623</v>
+        <v>1551.082928092624</v>
       </c>
       <c r="W46" t="n">
-        <v>1317.249899088683</v>
+        <v>1317.249899088684</v>
       </c>
       <c r="X46" t="n">
-        <v>1124.142672435551</v>
+        <v>1124.142672435552</v>
       </c>
       <c r="Y46" t="n">
-        <v>944.643609311501</v>
+        <v>944.6436093115017</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>83.52040466158019</v>
       </c>
       <c r="K2" t="n">
-        <v>99.33320300148937</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
@@ -7990,19 +7990,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>102.6971116271836</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>103.4341841514484</v>
       </c>
       <c r="Q2" t="n">
         <v>100.2306177274243</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>97.50895614299576</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>61.56605212827225</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>66.02259611288764</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>67.3491046089817</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>67.94829232827223</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>64.45644833107599</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.88943183311096</v>
+        <v>66.47743937540299</v>
       </c>
       <c r="R3" t="n">
-        <v>69.19701243367766</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51.43314568295542</v>
+        <v>61.62995901122766</v>
       </c>
       <c r="K4" t="n">
-        <v>52.25036955906683</v>
+        <v>62.44718288733907</v>
       </c>
       <c r="L4" t="n">
-        <v>54.62829389390151</v>
+        <v>64.82510722217376</v>
       </c>
       <c r="M4" t="n">
-        <v>66.46175582705229</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N4" t="n">
-        <v>61.49746637898372</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O4" t="n">
-        <v>66.27171140126856</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P4" t="n">
-        <v>55.77984163990478</v>
+        <v>65.56466251046905</v>
       </c>
       <c r="Q4" t="n">
-        <v>71.55633898819781</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>83.10841220387222</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>99.33320300148937</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
@@ -8236,7 +8236,7 @@
         <v>103.8461766091564</v>
       </c>
       <c r="Q5" t="n">
-        <v>100.2306177274243</v>
+        <v>99.81862526971632</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8303,22 +8303,22 @@
         <v>66.31133713912129</v>
       </c>
       <c r="M6" t="n">
-        <v>67.76109706668967</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>63.39020672202223</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>67.53629987056428</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>64.45644833107599</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>66.88943183311096</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>68.78501997596969</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8379,22 +8379,22 @@
         <v>62.44718288733907</v>
       </c>
       <c r="L7" t="n">
-        <v>64.82510722217376</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M7" t="n">
-        <v>56.26494249878004</v>
+        <v>66.46175582705229</v>
       </c>
       <c r="N7" t="n">
-        <v>51.71264550841944</v>
+        <v>61.90945883669168</v>
       </c>
       <c r="O7" t="n">
-        <v>56.07489807299633</v>
+        <v>65.85971894356061</v>
       </c>
       <c r="P7" t="n">
-        <v>65.97665496817703</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.14434653048984</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>83.52040466158019</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
         <v>99.33320300148937</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>105.2702189334091</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>103.4870377853177</v>
       </c>
       <c r="N8" t="n">
-        <v>102.6971116271836</v>
+        <v>103.1091040848916</v>
       </c>
       <c r="O8" t="n">
-        <v>103.3865889540554</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8537,22 +8537,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>65.89934468141333</v>
+        <v>66.31133713912129</v>
       </c>
       <c r="M9" t="n">
         <v>67.76109706668967</v>
       </c>
       <c r="N9" t="n">
-        <v>63.39020672202223</v>
+        <v>62.97821426431427</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>67.94829232827223</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>66.88943183311096</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>51.43314568295542</v>
+        <v>61.62995901122766</v>
       </c>
       <c r="K10" t="n">
-        <v>52.25036955906683</v>
+        <v>62.44718288733907</v>
       </c>
       <c r="L10" t="n">
-        <v>54.62829389390151</v>
+        <v>64.41311476446577</v>
       </c>
       <c r="M10" t="n">
-        <v>66.46175582705229</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N10" t="n">
         <v>61.90945883669168</v>
       </c>
       <c r="O10" t="n">
-        <v>66.27171140126856</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P10" t="n">
         <v>55.77984163990478</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.14434653048984</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>555.161179149988</v>
+        <v>547.5859271261096</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8701,19 +8701,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>508.6916757879995</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7487229228000984</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>543.395244912307</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>25.70166262551777</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,19 +8768,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>1.789335864067056</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>429.8562543736709</v>
       </c>
       <c r="L12" t="n">
-        <v>532.9580414271621</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>515.3846409738064</v>
       </c>
       <c r="N12" t="n">
-        <v>35.0733010787435</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8929,13 +8929,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>555.161179149988</v>
+        <v>547.5859271261096</v>
       </c>
       <c r="L14" t="n">
-        <v>531.4938823146077</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7649723419545</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8944,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>543.395244912307</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9011,7 +9011,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>315.3950593142334</v>
+        <v>429.004752698924</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>523.6805590450679</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9169,22 +9169,22 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>815.2746908024792</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>853.701196452193</v>
+        <v>174.1114305338685</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>291.047437222944</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9242,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>1.789335864067056</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>70.25637113112541</v>
       </c>
       <c r="M18" t="n">
-        <v>875.7717720959133</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M20" t="n">
-        <v>877.4504173780091</v>
+        <v>236.2871571093987</v>
       </c>
       <c r="N20" t="n">
-        <v>853.701196452193</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P20" t="n">
-        <v>96.09505978473311</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>491.4450500830466</v>
+        <v>429.0047526989243</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>26.41800208757582</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,22 +9646,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>236.2871571093987</v>
       </c>
       <c r="N23" t="n">
-        <v>853.701196452193</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P23" t="n">
-        <v>527.7526897426185</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>25.70166262551777</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>1.789335864067056</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>516.2361426485535</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>114.1460908183001</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>621.6393243851574</v>
+        <v>176.4216481193017</v>
       </c>
       <c r="Q24" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>26.41800208757582</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L26" t="n">
-        <v>815.2746908024792</v>
+        <v>108.3905910358708</v>
       </c>
       <c r="M26" t="n">
         <v>877.4504173780091</v>
@@ -9892,7 +9892,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P26" t="n">
-        <v>553.9988239230398</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q26" t="n">
         <v>414.4388617681339</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>1.789335864067056</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>169.3928222518602</v>
+        <v>36.18461090747773</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>26.41800208757582</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
         <v>632.7318453389136</v>
@@ -10120,7 +10120,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M29" t="n">
-        <v>812.5049832288798</v>
+        <v>170.5663176114007</v>
       </c>
       <c r="N29" t="n">
         <v>853.701196452193</v>
@@ -10132,10 +10132,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>25.70166262551777</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>1.789335864067056</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>429.0047526989242</v>
       </c>
       <c r="M30" t="n">
-        <v>663.9758114096496</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10354,16 +10354,16 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L32" t="n">
-        <v>815.2746908024792</v>
+        <v>749.1357558942053</v>
       </c>
       <c r="M32" t="n">
-        <v>67.98952864485732</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N32" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O32" t="n">
-        <v>743.321953824879</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>628.1510783507341</v>
@@ -10427,13 +10427,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>1.789335864067056</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>429.0047526989242</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>735.7854152034574</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>26.41800208757582</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,19 +10594,19 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M35" t="n">
-        <v>877.4504173780091</v>
+        <v>236.2871571094011</v>
       </c>
       <c r="N35" t="n">
-        <v>401.4266798502571</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10664,16 +10664,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>1.789335864067056</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>429.0047526989247</v>
       </c>
       <c r="M36" t="n">
-        <v>875.7717720959133</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10834,10 +10834,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>668.9405388918309</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O38" t="n">
-        <v>743.321953824879</v>
+        <v>125.9079144820852</v>
       </c>
       <c r="P38" t="n">
         <v>628.1510783507341</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>25.70166262551777</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>1.789335864067056</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>663.9758114096494</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>429.0047526989243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>273.4243846576313</v>
+        <v>555.1611791499882</v>
       </c>
       <c r="L41" t="n">
-        <v>531.4938823146078</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>511.856321156785</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>518.7220384934145</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>535.8199928884293</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>1.789335864067056</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>532.9580414271621</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>35.5190021560479</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>507.494523499988</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>523.6805590450679</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>429.0047526989239</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>547.5859271261101</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>511.856321156785</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>508.6916757879995</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>518.7220384934145</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>296.2265911842393</v>
+        <v>543.3952449123071</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>1.789335864067056</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>532.9580414271621</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>76.80274371651726</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>507.494523499988</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>544.8371148687204</v>
+        <v>429.0047526989239</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>26.41800208757582</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>361.2390756475494</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>355.6350214755569</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>156.6613170077445</v>
+        <v>236.8420754224101</v>
       </c>
       <c r="H11" t="n">
         <v>252.970475998816</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.79390569803741</v>
+        <v>66.79390569803743</v>
       </c>
       <c r="T11" t="n">
-        <v>170.906677021522</v>
+        <v>170.9066770215221</v>
       </c>
       <c r="U11" t="n">
         <v>209.627153305917</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>301.5549099845709</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>335.1384287238699</v>
       </c>
       <c r="X11" t="n">
         <v>351.8526947204238</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>361.2390756475494</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>355.6350214755569</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>372.0358387935361</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>358.8759273230977</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>252.970475998816</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.891498459842261</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.79390569803741</v>
       </c>
       <c r="T14" t="n">
-        <v>170.9066770215221</v>
+        <v>170.906677021522</v>
       </c>
       <c r="U14" t="n">
-        <v>209.627153305917</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>140.996927512074</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>335.1384287238699</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>351.8526947204238</v>
       </c>
       <c r="Y14" t="n">
-        <v>352.1430371890776</v>
+        <v>14.22087413642168</v>
       </c>
     </row>
     <row r="15">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>7.073430804158022</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>94.68782451092974</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>101.9519305097581</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>111.5789407332298</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>165.1379318910501</v>
@@ -24891,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>235.2734427407823</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>80.21274998743047</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>59.87527797888396</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -25092,10 +25092,10 @@
         <v>165.1379318910501</v>
       </c>
       <c r="H34" t="n">
-        <v>144.199778309295</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>101.9519305097581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>235.2734427407823</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9461684190101</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>15.51266529387811</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>134.7780157723048</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>372.0358387935361</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>114.5948716991939</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.891498459842275</v>
+        <v>2.891498459842218</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.79390569803741</v>
+        <v>66.79390569803735</v>
       </c>
       <c r="T41" t="n">
         <v>170.906677021522</v>
       </c>
       <c r="U41" t="n">
-        <v>209.627153305917</v>
+        <v>209.6271533059169</v>
       </c>
       <c r="V41" t="n">
         <v>301.5549099845709</v>
@@ -25693,7 +25693,7 @@
         <v>335.1384287238699</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>351.8526947204238</v>
       </c>
       <c r="Y41" t="n">
         <v>352.1430371890776</v>
@@ -25870,19 +25870,19 @@
         <v>361.2390756475494</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>355.6350214755569</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>365.4125441959591</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>358.8759273230977</v>
       </c>
       <c r="H44" t="n">
-        <v>252.970475998816</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>170.906677021522</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>209.627153305917</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>243.6614729888152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>335.1384287238699</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>149.3853235095335</v>
       </c>
       <c r="Y44" t="n">
-        <v>352.1430371890776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>500897.574374966</v>
+        <v>500897.5743749659</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>500897.5743749659</v>
+        <v>500897.574374966</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>674777.4701269654</v>
+        <v>674777.4701269652</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>500897.5743749659</v>
+        <v>500897.5743749662</v>
       </c>
     </row>
     <row r="16">
@@ -26319,22 +26319,22 @@
         <v>602177.1810388711</v>
       </c>
       <c r="D2" t="n">
-        <v>602177.1810388712</v>
+        <v>602177.1810388709</v>
       </c>
       <c r="E2" t="n">
         <v>460876.5704140225</v>
       </c>
       <c r="F2" t="n">
-        <v>460876.5704140224</v>
+        <v>460876.5704140225</v>
       </c>
       <c r="G2" t="n">
-        <v>602664.8542200906</v>
+        <v>602664.8542200907</v>
       </c>
       <c r="H2" t="n">
-        <v>602664.8542200907</v>
+        <v>602664.8542200904</v>
       </c>
       <c r="I2" t="n">
-        <v>602664.8542200914</v>
+        <v>602664.8542200917</v>
       </c>
       <c r="J2" t="n">
         <v>578962.0739817321</v>
@@ -26343,19 +26343,19 @@
         <v>578962.0739817321</v>
       </c>
       <c r="L2" t="n">
-        <v>578962.0739817321</v>
+        <v>578962.0739817322</v>
       </c>
       <c r="M2" t="n">
-        <v>602664.8542200906</v>
+        <v>602664.8542200907</v>
       </c>
       <c r="N2" t="n">
-        <v>602664.8542200917</v>
+        <v>602664.8542200904</v>
       </c>
       <c r="O2" t="n">
-        <v>460876.5704140227</v>
+        <v>460876.5704140225</v>
       </c>
       <c r="P2" t="n">
-        <v>460876.5704140225</v>
+        <v>460876.5704140224</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3417.186673010583</v>
+        <v>3417.186673010578</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>405189.2290350532</v>
+        <v>405189.2290350531</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-11</v>
       </c>
       <c r="G3" t="n">
         <v>136003.3331419243</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>47958.34671807852</v>
+        <v>47958.3467180786</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>137375.7166437492</v>
+        <v>137375.7166437493</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>135581.839533317</v>
       </c>
       <c r="G4" t="n">
-        <v>186645.4371945387</v>
+        <v>186645.4371945388</v>
       </c>
       <c r="H4" t="n">
         <v>186645.4371945388</v>
@@ -26450,13 +26450,13 @@
         <v>159202.1130212143</v>
       </c>
       <c r="M4" t="n">
-        <v>186645.4371945387</v>
+        <v>186645.4371945389</v>
       </c>
       <c r="N4" t="n">
         <v>186645.4371945388</v>
       </c>
       <c r="O4" t="n">
-        <v>135581.839533317</v>
+        <v>135581.8395333171</v>
       </c>
       <c r="P4" t="n">
         <v>135581.839533317</v>
@@ -26484,34 +26484,34 @@
         <v>45003.4678451972</v>
       </c>
       <c r="G5" t="n">
-        <v>75172.95050579154</v>
+        <v>75172.95050579155</v>
       </c>
       <c r="H5" t="n">
-        <v>75172.95050579154</v>
+        <v>75172.95050579155</v>
       </c>
       <c r="I5" t="n">
-        <v>75172.95050579154</v>
+        <v>75172.95050579155</v>
       </c>
       <c r="J5" t="n">
         <v>81932.42350969707</v>
       </c>
       <c r="K5" t="n">
-        <v>81932.4235096971</v>
+        <v>81932.42350969707</v>
       </c>
       <c r="L5" t="n">
-        <v>81932.42350969708</v>
+        <v>81932.42350969707</v>
       </c>
       <c r="M5" t="n">
-        <v>75172.95050579154</v>
+        <v>75172.95050579155</v>
       </c>
       <c r="N5" t="n">
-        <v>75172.95050579154</v>
+        <v>75172.95050579155</v>
       </c>
       <c r="O5" t="n">
-        <v>45003.4678451972</v>
+        <v>45003.46784519722</v>
       </c>
       <c r="P5" t="n">
-        <v>45003.4678451972</v>
+        <v>45003.46784519721</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>218155.187670698</v>
+        <v>218153.869635073</v>
       </c>
       <c r="C6" t="n">
-        <v>221572.3743437084</v>
+        <v>221571.0563080835</v>
       </c>
       <c r="D6" t="n">
-        <v>221572.3743437085</v>
+        <v>221571.0563080834</v>
       </c>
       <c r="E6" t="n">
-        <v>-124897.9659995449</v>
+        <v>-125281.177577399</v>
       </c>
       <c r="F6" t="n">
-        <v>280291.2630355082</v>
+        <v>279908.0514576541</v>
       </c>
       <c r="G6" t="n">
-        <v>204843.1333778359</v>
+        <v>204843.133377836</v>
       </c>
       <c r="H6" t="n">
-        <v>340846.4665197604</v>
+        <v>340846.4665197601</v>
       </c>
       <c r="I6" t="n">
-        <v>340846.4665197611</v>
+        <v>340846.4665197614</v>
       </c>
       <c r="J6" t="n">
-        <v>289869.1907327422</v>
+        <v>289805.1291645303</v>
       </c>
       <c r="K6" t="n">
-        <v>337827.5374508207</v>
+        <v>337763.4758826089</v>
       </c>
       <c r="L6" t="n">
-        <v>337827.5374508207</v>
+        <v>337763.475882609</v>
       </c>
       <c r="M6" t="n">
-        <v>203470.7498760111</v>
+        <v>203470.749876011</v>
       </c>
       <c r="N6" t="n">
-        <v>340846.4665197614</v>
+        <v>340846.4665197601</v>
       </c>
       <c r="O6" t="n">
-        <v>280291.2630355085</v>
+        <v>279908.051457654</v>
       </c>
       <c r="P6" t="n">
-        <v>280291.2630355084</v>
+        <v>279908.051457654</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="F2" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="G2" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="H2" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="I2" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26718,16 +26718,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="N2" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="O2" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="P2" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
     </row>
     <row r="3">
@@ -26770,7 +26770,7 @@
         <v>243.9751966579496</v>
       </c>
       <c r="M3" t="n">
-        <v>243.9751966579496</v>
+        <v>243.9751966579495</v>
       </c>
       <c r="N3" t="n">
         <v>243.9751966579496</v>
@@ -26828,10 +26828,10 @@
         <v>1086.995435805326</v>
       </c>
       <c r="O4" t="n">
-        <v>590.7868394139715</v>
+        <v>590.7868394139717</v>
       </c>
       <c r="P4" t="n">
-        <v>590.7868394139715</v>
+        <v>590.7868394139716</v>
       </c>
     </row>
   </sheetData>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>183.296183814949</v>
+        <v>183.2961838149495</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>407.490655599022</v>
+        <v>407.4906555990221</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27460,25 +27460,25 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>123.6737673590016</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>105.5313728745292</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>109.091074519323</v>
       </c>
       <c r="F3" t="n">
-        <v>98.88892783977828</v>
+        <v>97.67346769104822</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>59.84292750636887</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>10.34429213768998</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>96.71329645856201</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -27551,10 +27551,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>156.5965339841698</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>137.9145673143257</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>74.2231778130821</v>
       </c>
       <c r="S4" t="n">
         <v>174.3310371106166</v>
       </c>
       <c r="T4" t="n">
-        <v>226.9564383047927</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>269.7733526510648</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>262.1655344303311</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>131.952702467699</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -27684,7 +27684,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>394.9517443352497</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27709,13 +27709,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>105.9202115588047</v>
+        <v>95.72339823053244</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>59.84292750636887</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>10.34429213768998</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>97.92875660729207</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>185.1804894248912</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>201.3775984086243</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
-        <v>200.9040232527623</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>165.5813688629539</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
         <v>157.8079400398083</v>
@@ -27794,7 +27794,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>106.2012322571749</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>175.5464972593466</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -27833,10 +27833,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>260.950074281601</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>266.0821545179421</v>
       </c>
       <c r="X7" t="n">
         <v>225.7636101906412</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>305.823850412418</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -27906,7 +27906,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>218.0088572264686</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>129.9186491296886</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
         <v>132.6551205385437</v>
@@ -27952,7 +27952,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>10.34429213768998</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,22 +27982,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>96.71329645856201</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
-        <v>185.1804894248912</v>
+        <v>186.3959495736213</v>
       </c>
       <c r="V9" t="n">
-        <v>211.5744117368965</v>
+        <v>201.3775984086243</v>
       </c>
       <c r="W9" t="n">
-        <v>211.1008365810345</v>
+        <v>200.9040232527623</v>
       </c>
       <c r="X9" t="n">
-        <v>174.5627220424961</v>
+        <v>164.3659087142239</v>
       </c>
       <c r="Y9" t="n">
         <v>157.8079400398083</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>175.6258960018317</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>159.1856253856284</v>
       </c>
       <c r="D10" t="n">
-        <v>148.9183450507769</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -28031,7 +28031,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>104.9857721084449</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>74.2231778130821</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>228.1718984535227</v>
       </c>
       <c r="U10" t="n">
-        <v>269.7733526510648</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -28079,7 +28079,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>212.2915282968507</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="C11" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="D11" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="E11" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="F11" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="G11" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="H11" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="I11" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="T11" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="U11" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="V11" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="W11" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="X11" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="C13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="D13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="E13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="F13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="G13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="H13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="I13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="J13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="K13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="L13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="M13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="N13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="O13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="P13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="R13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="S13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="T13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="U13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="V13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="W13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="X13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231315</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="C14" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="D14" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="E14" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="F14" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="G14" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="H14" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="I14" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="T14" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="U14" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="V14" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="W14" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="X14" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="C16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="D16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="E16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="F16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="G16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="H16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="I16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="J16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="K16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="L16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="M16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="N16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="O16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="P16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="R16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="S16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="T16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="U16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="V16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="W16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="X16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="C17" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="D17" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="E17" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="F17" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="G17" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="H17" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="I17" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="T17" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="U17" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="V17" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="W17" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="X17" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="Y17" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="C19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="D19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="E19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="F19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="G19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="H19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="I19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="J19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="K19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="L19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="M19" t="n">
-        <v>44.78426913231385</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="N19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231334</v>
       </c>
       <c r="O19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="P19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="R19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="S19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="T19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="U19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="V19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="W19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="X19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="C20" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="D20" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="E20" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="F20" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="G20" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="H20" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="I20" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="T20" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="U20" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="V20" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="W20" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="X20" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="Y20" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="C22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="D22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="E22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="F22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="G22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="H22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="I22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="J22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="K22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="L22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="M22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="N22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="O22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="P22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231294</v>
       </c>
       <c r="R22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="S22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="T22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="U22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="V22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="W22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="X22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.78426913231315</v>
+        <v>44.78426913231318</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="C23" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="D23" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="E23" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="F23" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="G23" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="H23" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="I23" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="T23" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="U23" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="V23" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="W23" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="X23" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="Y23" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="C25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="D25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="E25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="F25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="G25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="H25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="I25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="J25" t="n">
-        <v>44.78426913231341</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="K25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="L25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="M25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="N25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="O25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="P25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="R25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="S25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="T25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="U25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="V25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="W25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="X25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="Y25" t="n">
-        <v>44.78426913231316</v>
+        <v>44.78426913231318</v>
       </c>
     </row>
     <row r="26">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="C35" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="D35" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="E35" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="F35" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="G35" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="H35" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="I35" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="T35" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="U35" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="V35" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="W35" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="X35" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="Y35" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="C37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="D37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="E37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="F37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="G37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="H37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="I37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="J37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="K37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="L37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="M37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="N37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="O37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="P37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="Q37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="R37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="S37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="T37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="U37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="V37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="W37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="X37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="C38" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="D38" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="E38" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="F38" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="G38" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="H38" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="I38" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="T38" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="U38" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="V38" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="W38" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="X38" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="Y38" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="C40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="D40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="E40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="F40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="G40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="H40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="I40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="J40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="K40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="L40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="M40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="N40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="O40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="P40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="Q40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231294</v>
       </c>
       <c r="R40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="S40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="T40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="U40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="V40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="W40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="X40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
       <c r="Y40" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231318</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="C41" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="D41" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="E41" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="F41" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="G41" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="H41" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="I41" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="T41" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="U41" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="V41" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="W41" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="X41" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="Y41" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="C43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="D43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="E43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="F43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="G43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="H43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="I43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="J43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="K43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="L43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="M43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="N43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="O43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="P43" t="n">
-        <v>44.78426913231357</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="Q43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="R43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="S43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="T43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="U43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="V43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="W43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="X43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
       <c r="Y43" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231323</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="C44" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="D44" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="E44" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="F44" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="G44" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="H44" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="I44" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="T44" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="U44" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="V44" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="W44" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="X44" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="Y44" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="C46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="D46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="E46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="F46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="G46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="H46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="I46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="J46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="K46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="L46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="M46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="N46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="O46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="P46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="Q46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="R46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="S46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="T46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="U46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="V46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="W46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="X46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.78426913231317</v>
+        <v>44.78426913231319</v>
       </c>
     </row>
   </sheetData>
@@ -33648,31 +33648,31 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9808048106852237</v>
+        <v>0.9808048106852232</v>
       </c>
       <c r="H35" t="n">
-        <v>10.04466726743005</v>
+        <v>10.04466726743004</v>
       </c>
       <c r="I35" t="n">
-        <v>37.81247746394212</v>
+        <v>37.8124774639421</v>
       </c>
       <c r="J35" t="n">
-        <v>83.24458230089509</v>
+        <v>83.24458230089503</v>
       </c>
       <c r="K35" t="n">
         <v>124.7620499372006</v>
       </c>
       <c r="L35" t="n">
-        <v>154.7783551622086</v>
+        <v>154.7783551622085</v>
       </c>
       <c r="M35" t="n">
-        <v>172.2207427142319</v>
+        <v>172.2207427142318</v>
       </c>
       <c r="N35" t="n">
-        <v>175.0074543825913</v>
+        <v>175.0074543825912</v>
       </c>
       <c r="O35" t="n">
-        <v>165.2545765463401</v>
+        <v>165.25457654634</v>
       </c>
       <c r="P35" t="n">
         <v>141.0409577825486</v>
@@ -33681,16 +33681,16 @@
         <v>105.915885499884</v>
       </c>
       <c r="R35" t="n">
-        <v>61.61048018920575</v>
+        <v>61.6104801892057</v>
       </c>
       <c r="S35" t="n">
-        <v>22.35008962348956</v>
+        <v>22.35008962348954</v>
       </c>
       <c r="T35" t="n">
-        <v>4.293473058774569</v>
+        <v>4.293473058774567</v>
       </c>
       <c r="U35" t="n">
-        <v>0.07846438485481788</v>
+        <v>0.07846438485481784</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5247768380944576</v>
+        <v>0.5247768380944573</v>
       </c>
       <c r="H36" t="n">
-        <v>5.068239462649105</v>
+        <v>5.068239462649101</v>
       </c>
       <c r="I36" t="n">
-        <v>18.06797446948023</v>
+        <v>18.06797446948022</v>
       </c>
       <c r="J36" t="n">
-        <v>49.57990293593296</v>
+        <v>49.57990293593293</v>
       </c>
       <c r="K36" t="n">
-        <v>84.73995108826162</v>
+        <v>84.73995108826156</v>
       </c>
       <c r="L36" t="n">
-        <v>113.9433217976585</v>
+        <v>113.9433217976584</v>
       </c>
       <c r="M36" t="n">
-        <v>132.9664821785825</v>
+        <v>132.9664821785824</v>
       </c>
       <c r="N36" t="n">
         <v>136.4857093077335</v>
       </c>
       <c r="O36" t="n">
-        <v>124.8577593689037</v>
+        <v>124.8577593689036</v>
       </c>
       <c r="P36" t="n">
         <v>100.2093595480548</v>
       </c>
       <c r="Q36" t="n">
-        <v>66.98730305219779</v>
+        <v>66.98730305219775</v>
       </c>
       <c r="R36" t="n">
-        <v>32.58219701782959</v>
+        <v>32.58219701782956</v>
       </c>
       <c r="S36" t="n">
-        <v>9.747499602324678</v>
+        <v>9.747499602324673</v>
       </c>
       <c r="T36" t="n">
-        <v>2.115218921968449</v>
+        <v>2.115218921968448</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03452479197989854</v>
+        <v>0.03452479197989852</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4399552726618763</v>
+        <v>0.439955272661876</v>
       </c>
       <c r="H37" t="n">
-        <v>3.911602333302866</v>
+        <v>3.911602333302864</v>
       </c>
       <c r="I37" t="n">
         <v>13.23065492695897</v>
       </c>
       <c r="J37" t="n">
-        <v>31.10483777719465</v>
+        <v>31.10483777719463</v>
       </c>
       <c r="K37" t="n">
-        <v>51.11480349653434</v>
+        <v>51.11480349653431</v>
       </c>
       <c r="L37" t="n">
-        <v>65.4093502646575</v>
+        <v>65.40935026465746</v>
       </c>
       <c r="M37" t="n">
-        <v>68.96498878644302</v>
+        <v>68.96498878644297</v>
       </c>
       <c r="N37" t="n">
-        <v>67.32515549743063</v>
+        <v>67.32515549743059</v>
       </c>
       <c r="O37" t="n">
-        <v>62.18567799406232</v>
+        <v>62.18567799406228</v>
       </c>
       <c r="P37" t="n">
-        <v>53.21059043176</v>
+        <v>53.21059043175997</v>
       </c>
       <c r="Q37" t="n">
-        <v>36.84025469535039</v>
+        <v>36.84025469535037</v>
       </c>
       <c r="R37" t="n">
-        <v>19.78198889623309</v>
+        <v>19.78198889623307</v>
       </c>
       <c r="S37" t="n">
-        <v>7.66722052448015</v>
+        <v>7.667220524480146</v>
       </c>
       <c r="T37" t="n">
-        <v>1.879808892282562</v>
+        <v>1.879808892282561</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02399756032701146</v>
+        <v>0.02399756032701145</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>10.19681332827224</v>
       </c>
       <c r="K2" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.784820870564275</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.784820870564277</v>
       </c>
       <c r="Q2" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.784820870564277</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>10.19681332827224</v>
+        <v>9.784820870564275</v>
       </c>
       <c r="R3" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="M4" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>9.784820870564277</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>9.784820870564275</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>9.784820870564277</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>10.19681332827224</v>
       </c>
       <c r="Q5" t="n">
-        <v>10.19681332827224</v>
+        <v>9.784820870564275</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35023,22 +35023,22 @@
         <v>10.19681332827224</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="O6" t="n">
+      <c r="R6" t="n">
         <v>9.784820870564275</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35099,22 +35099,22 @@
         <v>10.19681332827224</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>9.784820870564275</v>
       </c>
       <c r="P7" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.784820870564275</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>9.784820870564277</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="N8" t="n">
-        <v>9.784820870564275</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="O8" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>9.784820870564277</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="M9" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="N9" t="n">
+        <v>9.784820870564275</v>
+      </c>
+      <c r="O9" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>9.784820870564275</v>
       </c>
       <c r="M10" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="O10" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.784820870564275</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>339.9975837834752</v>
       </c>
       <c r="K11" t="n">
-        <v>590.7868394139715</v>
+        <v>583.2115873900931</v>
       </c>
       <c r="L11" t="n">
         <v>59.29295709936376</v>
@@ -35421,19 +35421,19 @@
         <v>78.93051825718648</v>
       </c>
       <c r="N11" t="n">
-        <v>590.7868394139715</v>
+        <v>82.09516362597201</v>
       </c>
       <c r="O11" t="n">
-        <v>72.8135238433571</v>
+        <v>72.064800920557</v>
       </c>
       <c r="P11" t="n">
         <v>590.7868394139715</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.88208110073198</v>
+        <v>430.3209428688659</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>102.5767889665439</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>244.340365120411</v>
       </c>
       <c r="K12" t="n">
-        <v>545.1503109521997</v>
+        <v>458.7704226773172</v>
       </c>
       <c r="L12" t="n">
-        <v>590.7868394139715</v>
+        <v>57.82879798680941</v>
       </c>
       <c r="M12" t="n">
         <v>590.7868394139715</v>
       </c>
       <c r="N12" t="n">
-        <v>118.365616992727</v>
+        <v>83.29231591398351</v>
       </c>
       <c r="O12" t="n">
         <v>67.1062803689037</v>
@@ -35509,7 +35509,7 @@
         <v>45.94972454525107</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.29468454735907</v>
+        <v>420.3655502077365</v>
       </c>
       <c r="R12" t="n">
         <v>62.44029738412241</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>90.11390428850834</v>
+        <v>90.11390428850832</v>
       </c>
       <c r="K13" t="n">
         <v>252.0125349745424</v>
@@ -35588,7 +35588,7 @@
         <v>305.7478295131766</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.8144529211089</v>
+        <v>147.8144529211088</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>339.9975837834752</v>
       </c>
       <c r="K14" t="n">
-        <v>590.7868394139715</v>
+        <v>583.2115873900931</v>
       </c>
       <c r="L14" t="n">
-        <v>590.7868394139715</v>
+        <v>59.29295709936376</v>
       </c>
       <c r="M14" t="n">
-        <v>497.695490599141</v>
+        <v>78.93051825718648</v>
       </c>
       <c r="N14" t="n">
         <v>82.09516362597201</v>
@@ -35664,10 +35664,10 @@
         <v>72.064800920557</v>
       </c>
       <c r="P14" t="n">
-        <v>47.39159450166449</v>
+        <v>590.7868394139715</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.88208110073198</v>
+        <v>430.3209428688659</v>
       </c>
       <c r="R14" t="n">
         <v>102.5767889665439</v>
@@ -35731,7 +35731,7 @@
         <v>545.1503109521997</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2238573010429</v>
+        <v>486.8335506857334</v>
       </c>
       <c r="M15" t="n">
         <v>75.40219844016508</v>
@@ -35740,13 +35740,13 @@
         <v>83.29231591398351</v>
       </c>
       <c r="O15" t="n">
-        <v>590.7868394139715</v>
+        <v>67.1062803689037</v>
       </c>
       <c r="P15" t="n">
         <v>45.94972454525107</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.29468454735907</v>
+        <v>420.3655502077365</v>
       </c>
       <c r="R15" t="n">
         <v>62.44029738412241</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>90.11390428850832</v>
+        <v>90.11390428850837</v>
       </c>
       <c r="K16" t="n">
-        <v>252.0125349745424</v>
+        <v>252.0125349745425</v>
       </c>
       <c r="L16" t="n">
         <v>372.7159429121834</v>
@@ -35825,7 +35825,7 @@
         <v>305.7478295131766</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.8144529211088</v>
+        <v>147.8144529211089</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,22 +35889,22 @@
         <v>668.3575056028972</v>
       </c>
       <c r="L17" t="n">
-        <v>874.567647901843</v>
+        <v>59.29295709936376</v>
       </c>
       <c r="M17" t="n">
         <v>956.3809356351956</v>
       </c>
       <c r="N17" t="n">
-        <v>935.796360078165</v>
+        <v>256.2065941598406</v>
       </c>
       <c r="O17" t="n">
-        <v>72.064800920557</v>
+        <v>815.386754745436</v>
       </c>
       <c r="P17" t="n">
-        <v>338.4390317246085</v>
+        <v>675.5426728523986</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.88208110073198</v>
+        <v>430.3209428688659</v>
       </c>
       <c r="R17" t="n">
         <v>102.5767889665439</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>244.340365120411</v>
       </c>
       <c r="K18" t="n">
-        <v>28.91416830364623</v>
+        <v>545.1503109521997</v>
       </c>
       <c r="L18" t="n">
-        <v>781.7091520191617</v>
+        <v>128.0851691179348</v>
       </c>
       <c r="M18" t="n">
-        <v>951.1739705360784</v>
+        <v>75.40219844016508</v>
       </c>
       <c r="N18" t="n">
         <v>83.29231591398351</v>
       </c>
       <c r="O18" t="n">
-        <v>67.1062803689037</v>
+        <v>835.9255275970797</v>
       </c>
       <c r="P18" t="n">
         <v>45.94972454525107</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>90.11390428850832</v>
+        <v>90.11390428850837</v>
       </c>
       <c r="K19" t="n">
         <v>252.0125349745424</v>
@@ -36050,10 +36050,10 @@
         <v>372.7159429121834</v>
       </c>
       <c r="M19" t="n">
-        <v>405.9351735152147</v>
+        <v>405.935173515214</v>
       </c>
       <c r="N19" t="n">
-        <v>395.7849624017138</v>
+        <v>395.7849624017139</v>
       </c>
       <c r="O19" t="n">
         <v>369.1523817995817</v>
@@ -36062,7 +36062,7 @@
         <v>305.7478295131766</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.8144529211088</v>
+        <v>147.8144529211089</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>9.920990967587144</v>
+        <v>339.9975837834752</v>
       </c>
       <c r="K20" t="n">
-        <v>35.62566026398351</v>
+        <v>668.3575056028972</v>
       </c>
       <c r="L20" t="n">
         <v>874.567647901843</v>
       </c>
       <c r="M20" t="n">
-        <v>956.3809356351956</v>
+        <v>315.2176753665852</v>
       </c>
       <c r="N20" t="n">
-        <v>935.796360078165</v>
+        <v>82.09516362597201</v>
       </c>
       <c r="O20" t="n">
         <v>815.386754745436</v>
       </c>
       <c r="P20" t="n">
-        <v>143.4866542863976</v>
+        <v>675.5426728523986</v>
       </c>
       <c r="Q20" t="n">
         <v>430.3209428688659</v>
@@ -36217,13 +36217,13 @@
         <v>67.1062803689037</v>
       </c>
       <c r="P21" t="n">
-        <v>537.3947746282977</v>
+        <v>474.9544772441754</v>
       </c>
       <c r="Q21" t="n">
         <v>420.3655502077365</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>62.44029738412241</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>90.11390428850832</v>
+        <v>90.11390428850837</v>
       </c>
       <c r="K22" t="n">
         <v>252.0125349745424</v>
@@ -36299,7 +36299,7 @@
         <v>305.7478295131766</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.8144529211088</v>
+        <v>147.8144529211086</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,22 +36366,22 @@
         <v>874.567647901843</v>
       </c>
       <c r="M23" t="n">
-        <v>78.93051825718648</v>
+        <v>315.2176753665852</v>
       </c>
       <c r="N23" t="n">
-        <v>935.796360078165</v>
+        <v>82.09516362597201</v>
       </c>
       <c r="O23" t="n">
         <v>815.386754745436</v>
       </c>
       <c r="P23" t="n">
-        <v>575.144284244283</v>
+        <v>675.5426728523986</v>
       </c>
       <c r="Q23" t="n">
-        <v>15.88208110073198</v>
+        <v>430.3209428688659</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.5767889665439</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>244.340365120411</v>
       </c>
       <c r="K24" t="n">
-        <v>545.1503109521997</v>
+        <v>28.91416830364623</v>
       </c>
       <c r="L24" t="n">
         <v>57.82879798680941</v>
@@ -36451,16 +36451,16 @@
         <v>83.29231591398351</v>
       </c>
       <c r="O24" t="n">
-        <v>181.2523711872037</v>
+        <v>835.9255275970797</v>
       </c>
       <c r="P24" t="n">
-        <v>667.5890489304085</v>
+        <v>222.3713726645527</v>
       </c>
       <c r="Q24" t="n">
         <v>420.3655502077365</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>62.44029738412241</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>90.11390428850859</v>
+        <v>90.11390428850837</v>
       </c>
       <c r="K25" t="n">
         <v>252.0125349745424</v>
@@ -36536,7 +36536,7 @@
         <v>305.7478295131766</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.8144529211088</v>
+        <v>147.8144529211089</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>339.9975837834752</v>
       </c>
       <c r="K26" t="n">
-        <v>35.62566026398351</v>
+        <v>668.3575056028972</v>
       </c>
       <c r="L26" t="n">
-        <v>874.567647901843</v>
+        <v>167.6835481352346</v>
       </c>
       <c r="M26" t="n">
         <v>956.3809356351956</v>
@@ -36612,7 +36612,7 @@
         <v>815.386754745436</v>
       </c>
       <c r="P26" t="n">
-        <v>601.3904184247043</v>
+        <v>675.5426728523986</v>
       </c>
       <c r="Q26" t="n">
         <v>430.3209428688659</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>244.340365120411</v>
       </c>
       <c r="K27" t="n">
         <v>28.91416830364623</v>
       </c>
       <c r="L27" t="n">
-        <v>781.7091520191617</v>
+        <v>57.82879798680941</v>
       </c>
       <c r="M27" t="n">
-        <v>75.40219844016508</v>
+        <v>984.458482880165</v>
       </c>
       <c r="N27" t="n">
-        <v>252.6851381658437</v>
+        <v>119.4769268214612</v>
       </c>
       <c r="O27" t="n">
-        <v>835.9255275970797</v>
+        <v>67.1062803689037</v>
       </c>
       <c r="P27" t="n">
         <v>45.94972454525107</v>
       </c>
       <c r="Q27" t="n">
-        <v>10.29468454735907</v>
+        <v>420.3655502077365</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>62.44029738412241</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>9.920990967587144</v>
+        <v>339.9975837834752</v>
       </c>
       <c r="K29" t="n">
         <v>668.3575056028972</v>
@@ -36840,7 +36840,7 @@
         <v>874.567647901843</v>
       </c>
       <c r="M29" t="n">
-        <v>891.4355014860663</v>
+        <v>249.4968358685872</v>
       </c>
       <c r="N29" t="n">
         <v>935.796360078165</v>
@@ -36852,10 +36852,10 @@
         <v>675.5426728523986</v>
       </c>
       <c r="Q29" t="n">
-        <v>15.88208110073198</v>
+        <v>430.3209428688659</v>
       </c>
       <c r="R29" t="n">
-        <v>102.5767889665439</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>244.340365120411</v>
       </c>
       <c r="K30" t="n">
-        <v>28.91416830364623</v>
+        <v>545.1503109521997</v>
       </c>
       <c r="L30" t="n">
-        <v>57.82879798680941</v>
+        <v>486.8335506857337</v>
       </c>
       <c r="M30" t="n">
-        <v>739.3780098498147</v>
+        <v>75.40219844016508</v>
       </c>
       <c r="N30" t="n">
-        <v>1018.9686306326</v>
+        <v>83.29231591398351</v>
       </c>
       <c r="O30" t="n">
         <v>67.1062803689037</v>
@@ -36931,7 +36931,7 @@
         <v>45.94972454525107</v>
       </c>
       <c r="Q30" t="n">
-        <v>10.29468454735907</v>
+        <v>420.3655502077365</v>
       </c>
       <c r="R30" t="n">
         <v>62.44029738412241</v>
@@ -37074,16 +37074,16 @@
         <v>668.3575056028972</v>
       </c>
       <c r="L32" t="n">
-        <v>874.567647901843</v>
+        <v>808.4287129935691</v>
       </c>
       <c r="M32" t="n">
-        <v>146.9200469020438</v>
+        <v>956.3809356351956</v>
       </c>
       <c r="N32" t="n">
         <v>935.796360078165</v>
       </c>
       <c r="O32" t="n">
-        <v>815.386754745436</v>
+        <v>72.064800920557</v>
       </c>
       <c r="P32" t="n">
         <v>675.5426728523986</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>244.340365120411</v>
       </c>
       <c r="K33" t="n">
         <v>545.1503109521997</v>
       </c>
       <c r="L33" t="n">
-        <v>57.82879798680941</v>
+        <v>486.8335506857337</v>
       </c>
       <c r="M33" t="n">
         <v>75.40219844016508</v>
@@ -37162,7 +37162,7 @@
         <v>83.29231591398351</v>
       </c>
       <c r="O33" t="n">
-        <v>802.8916955723612</v>
+        <v>67.1062803689037</v>
       </c>
       <c r="P33" t="n">
         <v>45.94972454525107</v>
@@ -37171,7 +37171,7 @@
         <v>420.3655502077365</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>62.44029738412241</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>339.9975837834752</v>
+        <v>339.9975837834751</v>
       </c>
       <c r="K35" t="n">
-        <v>668.3575056028972</v>
+        <v>668.357505602897</v>
       </c>
       <c r="L35" t="n">
-        <v>874.567647901843</v>
+        <v>874.5676479018429</v>
       </c>
       <c r="M35" t="n">
-        <v>956.3809356351956</v>
+        <v>315.2176753665875</v>
       </c>
       <c r="N35" t="n">
-        <v>483.5218434762292</v>
+        <v>82.09516362597189</v>
       </c>
       <c r="O35" t="n">
-        <v>815.386754745436</v>
+        <v>815.3867547454358</v>
       </c>
       <c r="P35" t="n">
-        <v>47.39159450166449</v>
+        <v>675.5426728523985</v>
       </c>
       <c r="Q35" t="n">
-        <v>15.88208110073198</v>
+        <v>430.3209428688658</v>
       </c>
       <c r="R35" t="n">
         <v>102.5767889665439</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>244.340365120411</v>
       </c>
       <c r="K36" t="n">
-        <v>28.91416830364623</v>
+        <v>545.1503109521997</v>
       </c>
       <c r="L36" t="n">
-        <v>781.7091520191617</v>
+        <v>486.833550685734</v>
       </c>
       <c r="M36" t="n">
-        <v>951.1739705360784</v>
+        <v>75.40219844016499</v>
       </c>
       <c r="N36" t="n">
-        <v>83.29231591398351</v>
+        <v>83.29231591398346</v>
       </c>
       <c r="O36" t="n">
-        <v>67.1062803689037</v>
+        <v>67.10628036890361</v>
       </c>
       <c r="P36" t="n">
-        <v>45.94972454525107</v>
+        <v>45.94972454525102</v>
       </c>
       <c r="Q36" t="n">
-        <v>10.29468454735907</v>
+        <v>420.3655502077365</v>
       </c>
       <c r="R36" t="n">
-        <v>62.44029738412241</v>
+        <v>62.44029738412239</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>90.11390428850835</v>
+        <v>90.11390428850834</v>
       </c>
       <c r="K37" t="n">
         <v>252.0125349745424</v>
       </c>
       <c r="L37" t="n">
-        <v>372.7159429121834</v>
+        <v>372.7159429121833</v>
       </c>
       <c r="M37" t="n">
         <v>405.935173515214</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>9.920990967587144</v>
+        <v>339.9975837834752</v>
       </c>
       <c r="K38" t="n">
         <v>668.3575056028972</v>
@@ -37554,10 +37554,10 @@
         <v>78.93051825718648</v>
       </c>
       <c r="N38" t="n">
-        <v>751.0357025178029</v>
+        <v>935.796360078165</v>
       </c>
       <c r="O38" t="n">
-        <v>815.386754745436</v>
+        <v>197.9727154026422</v>
       </c>
       <c r="P38" t="n">
         <v>675.5426728523986</v>
@@ -37566,7 +37566,7 @@
         <v>430.3209428688659</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>102.5767889665439</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>244.340365120411</v>
       </c>
       <c r="K39" t="n">
-        <v>28.91416830364623</v>
+        <v>545.1503109521997</v>
       </c>
       <c r="L39" t="n">
         <v>57.82879798680941</v>
@@ -37633,16 +37633,16 @@
         <v>75.40219844016508</v>
       </c>
       <c r="N39" t="n">
-        <v>1018.9686306326</v>
+        <v>83.29231591398351</v>
       </c>
       <c r="O39" t="n">
-        <v>731.0820917785531</v>
+        <v>67.1062803689037</v>
       </c>
       <c r="P39" t="n">
-        <v>45.94972454525107</v>
+        <v>474.9544772441754</v>
       </c>
       <c r="Q39" t="n">
-        <v>10.29468454735907</v>
+        <v>420.3655502077365</v>
       </c>
       <c r="R39" t="n">
         <v>62.44029738412241</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.11390428850835</v>
+        <v>90.11390428850837</v>
       </c>
       <c r="K40" t="n">
         <v>252.0125349745424</v>
@@ -37721,7 +37721,7 @@
         <v>305.7478295131766</v>
       </c>
       <c r="Q40" t="n">
-        <v>147.8144529211089</v>
+        <v>147.8144529211086</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>9.920990967587144</v>
+        <v>339.9975837834752</v>
       </c>
       <c r="K41" t="n">
-        <v>309.0500449216148</v>
+        <v>590.7868394139717</v>
       </c>
       <c r="L41" t="n">
-        <v>590.7868394139715</v>
+        <v>59.29295709936376</v>
       </c>
       <c r="M41" t="n">
-        <v>590.7868394139715</v>
+        <v>78.93051825718648</v>
       </c>
       <c r="N41" t="n">
         <v>82.09516362597201</v>
       </c>
       <c r="O41" t="n">
-        <v>590.7868394139715</v>
+        <v>72.064800920557</v>
       </c>
       <c r="P41" t="n">
-        <v>47.39159450166449</v>
+        <v>583.2115873900938</v>
       </c>
       <c r="Q41" t="n">
-        <v>15.88208110073198</v>
+        <v>430.3209428688659</v>
       </c>
       <c r="R41" t="n">
         <v>102.5767889665439</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>244.340365120411</v>
       </c>
       <c r="K42" t="n">
-        <v>28.91416830364623</v>
+        <v>545.1503109521997</v>
       </c>
       <c r="L42" t="n">
-        <v>590.7868394139715</v>
+        <v>57.82879798680941</v>
       </c>
       <c r="M42" t="n">
-        <v>110.921200596213</v>
+        <v>75.40219844016508</v>
       </c>
       <c r="N42" t="n">
-        <v>590.7868394139715</v>
+        <v>83.29231591398351</v>
       </c>
       <c r="O42" t="n">
-        <v>590.7868394139715</v>
+        <v>67.1062803689037</v>
       </c>
       <c r="P42" t="n">
-        <v>45.94972454525107</v>
+        <v>474.9544772441749</v>
       </c>
       <c r="Q42" t="n">
-        <v>10.29468454735907</v>
+        <v>420.3655502077365</v>
       </c>
       <c r="R42" t="n">
         <v>62.44029738412241</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.11390428850835</v>
+        <v>90.11390428850841</v>
       </c>
       <c r="K43" t="n">
-        <v>252.0125349745424</v>
+        <v>252.0125349745425</v>
       </c>
       <c r="L43" t="n">
         <v>372.7159429121834</v>
       </c>
       <c r="M43" t="n">
-        <v>405.935173515214</v>
+        <v>405.9351735152141</v>
       </c>
       <c r="N43" t="n">
         <v>395.7849624017138</v>
@@ -37955,7 +37955,7 @@
         <v>369.1523817995817</v>
       </c>
       <c r="P43" t="n">
-        <v>305.747829513177</v>
+        <v>305.7478295131766</v>
       </c>
       <c r="Q43" t="n">
         <v>147.8144529211089</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>9.920990967587144</v>
+        <v>339.9975837834752</v>
       </c>
       <c r="K44" t="n">
-        <v>35.62566026398351</v>
+        <v>583.2115873900935</v>
       </c>
       <c r="L44" t="n">
         <v>59.29295709936376</v>
       </c>
       <c r="M44" t="n">
-        <v>590.7868394139715</v>
+        <v>78.93051825718648</v>
       </c>
       <c r="N44" t="n">
-        <v>590.7868394139715</v>
+        <v>82.09516362597201</v>
       </c>
       <c r="O44" t="n">
-        <v>590.7868394139715</v>
+        <v>72.064800920557</v>
       </c>
       <c r="P44" t="n">
-        <v>343.6181856859038</v>
+        <v>590.7868394139716</v>
       </c>
       <c r="Q44" t="n">
-        <v>15.88208110073198</v>
+        <v>430.3209428688659</v>
       </c>
       <c r="R44" t="n">
         <v>102.5767889665439</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>244.340365120411</v>
       </c>
       <c r="K45" t="n">
-        <v>28.91416830364623</v>
+        <v>545.1503109521997</v>
       </c>
       <c r="L45" t="n">
-        <v>590.7868394139715</v>
+        <v>57.82879798680941</v>
       </c>
       <c r="M45" t="n">
-        <v>152.2049421566823</v>
+        <v>75.40219844016508</v>
       </c>
       <c r="N45" t="n">
-        <v>590.7868394139715</v>
+        <v>83.29231591398351</v>
       </c>
       <c r="O45" t="n">
         <v>67.1062803689037</v>
       </c>
       <c r="P45" t="n">
-        <v>590.7868394139715</v>
+        <v>474.9544772441749</v>
       </c>
       <c r="Q45" t="n">
-        <v>10.29468454735907</v>
+        <v>420.3655502077365</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>62.44029738412241</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.11390428850835</v>
+        <v>90.11390428850837</v>
       </c>
       <c r="K46" t="n">
-        <v>252.0125349745424</v>
+        <v>252.0125349745425</v>
       </c>
       <c r="L46" t="n">
         <v>372.7159429121834</v>
